--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -70,25 +70,25 @@
     <t>find duplicate in an array of N+1 Integers</t>
   </si>
   <si>
+    <t>Merge 2 sorted arrays without using Extra space.</t>
+  </si>
+  <si>
+    <t>Kadane's Algo [V.V.V.V.V IMP]</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Count Inversion</t>
+  </si>
+  <si>
+    <t>Best time to buy and Sell stock</t>
+  </si>
+  <si>
     <t>&lt;-&gt;</t>
-  </si>
-  <si>
-    <t>Merge 2 sorted arrays without using Extra space.</t>
-  </si>
-  <si>
-    <t>Kadane's Algo [V.V.V.V.V IMP]</t>
-  </si>
-  <si>
-    <t>Merge Intervals</t>
-  </si>
-  <si>
-    <t>Next Permutation</t>
-  </si>
-  <si>
-    <t>Count Inversion</t>
-  </si>
-  <si>
-    <t>Best time to buy and Sell stock</t>
   </si>
   <si>
     <t>find all pairs on integer array whose sum is equal to given number</t>
@@ -1510,7 +1510,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1524,14 +1531,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1545,6 +1545,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1553,19 +1561,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1585,10 +1584,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1630,6 +1630,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1640,13 +1647,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1673,31 +1673,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1715,7 +1709,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1727,25 +1727,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1757,97 +1841,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1883,15 +1883,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1935,6 +1926,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1961,47 +1961,47 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2010,97 +2010,97 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2459,8 +2459,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -2641,8 +2641,8 @@
       <c r="B16" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>18</v>
+      <c r="C16" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D16">
         <v>11</v>
@@ -2653,10 +2653,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="10" t="s">
         <v>18</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D17">
         <v>12</v>
@@ -2667,10 +2667,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D18">
         <v>13</v>
@@ -2680,11 +2680,11 @@
       <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>18</v>
+      <c r="B19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D19">
         <v>14</v>
@@ -2694,11 +2694,11 @@
       <c r="A20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>18</v>
+      <c r="B20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D20">
         <v>15</v>
@@ -2708,11 +2708,11 @@
       <c r="A21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>18</v>
+      <c r="B21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D21">
         <v>16</v>
@@ -2722,11 +2722,11 @@
       <c r="A22" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>24</v>
+      <c r="B22" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D22">
         <v>17</v>
@@ -2740,7 +2740,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D23">
         <v>18</v>
@@ -2754,7 +2754,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D24">
         <v>19</v>
@@ -2768,7 +2768,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D25">
         <v>20</v>
@@ -2782,7 +2782,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D26">
         <v>21</v>
@@ -2796,7 +2796,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D27">
         <v>22</v>
@@ -2810,7 +2810,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D28">
         <v>23</v>
@@ -2824,7 +2824,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D29">
         <v>24</v>
@@ -2838,7 +2838,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D30">
         <v>25</v>
@@ -2852,7 +2852,7 @@
         <v>33</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D31">
         <v>26</v>
@@ -2866,7 +2866,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D32">
         <v>27</v>
@@ -2880,7 +2880,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D33">
         <v>28</v>
@@ -2894,7 +2894,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D34">
         <v>29</v>
@@ -2908,7 +2908,7 @@
         <v>37</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D35">
         <v>30</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D36">
         <v>31</v>
@@ -2936,7 +2936,7 @@
         <v>39</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D37">
         <v>32</v>
@@ -2950,7 +2950,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D38">
         <v>33</v>
@@ -2964,7 +2964,7 @@
         <v>41</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D39">
         <v>34</v>
@@ -2978,7 +2978,7 @@
         <v>42</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D40">
         <v>35</v>
@@ -2992,7 +2992,7 @@
         <v>43</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D41">
         <v>36</v>
@@ -3001,14 +3001,14 @@
     <row r="42" ht="21" spans="2:3">
       <c r="B42" s="11"/>
       <c r="C42" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="21" spans="1:4">
       <c r="A43" s="6"/>
       <c r="B43" s="11"/>
       <c r="C43" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3035,8 +3035,8 @@
       <c r="B45" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>18</v>
+      <c r="C45" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -3050,7 +3050,7 @@
         <v>47</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D46">
         <v>4</v>
@@ -3064,7 +3064,7 @@
         <v>48</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D47">
         <v>5</v>
@@ -3078,7 +3078,7 @@
         <v>49</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D48">
         <v>6</v>
@@ -3092,7 +3092,7 @@
         <v>50</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D49">
         <v>7</v>
@@ -3106,7 +3106,7 @@
         <v>51</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D50">
         <v>8</v>
@@ -3120,7 +3120,7 @@
         <v>52</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D51">
         <v>9</v>
@@ -3134,7 +3134,7 @@
         <v>53</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D52">
         <v>10</v>
@@ -3148,7 +3148,7 @@
         <v>54</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D53">
         <v>11</v>
@@ -3237,7 +3237,7 @@
         <v>61</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D61">
         <v>6</v>
@@ -3251,7 +3251,7 @@
         <v>62</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D62">
         <v>7</v>
@@ -3265,7 +3265,7 @@
         <v>63</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D63">
         <v>8</v>
@@ -3279,7 +3279,7 @@
         <v>64</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D64">
         <v>9</v>
@@ -3293,7 +3293,7 @@
         <v>65</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D65">
         <v>10</v>
@@ -3307,7 +3307,7 @@
         <v>66</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D66">
         <v>11</v>
@@ -3321,7 +3321,7 @@
         <v>67</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D67">
         <v>12</v>
@@ -3335,7 +3335,7 @@
         <v>68</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D68">
         <v>13</v>
@@ -3349,7 +3349,7 @@
         <v>69</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D69">
         <v>14</v>
@@ -3363,7 +3363,7 @@
         <v>70</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D70">
         <v>15</v>
@@ -3377,7 +3377,7 @@
         <v>71</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D71">
         <v>16</v>
@@ -3391,7 +3391,7 @@
         <v>72</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D72">
         <v>17</v>
@@ -3405,7 +3405,7 @@
         <v>73</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D73">
         <v>18</v>
@@ -3419,7 +3419,7 @@
         <v>74</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D74">
         <v>19</v>
@@ -3433,7 +3433,7 @@
         <v>75</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D75">
         <v>20</v>
@@ -3447,7 +3447,7 @@
         <v>76</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D76">
         <v>21</v>
@@ -3461,7 +3461,7 @@
         <v>77</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D77">
         <v>22</v>
@@ -3475,7 +3475,7 @@
         <v>78</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D78">
         <v>23</v>
@@ -3489,7 +3489,7 @@
         <v>79</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D79">
         <v>24</v>
@@ -3503,7 +3503,7 @@
         <v>80</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D80">
         <v>25</v>
@@ -3517,7 +3517,7 @@
         <v>81</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D81">
         <v>26</v>
@@ -3531,7 +3531,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D82">
         <v>27</v>
@@ -3545,7 +3545,7 @@
         <v>83</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D83">
         <v>28</v>
@@ -3559,7 +3559,7 @@
         <v>84</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D84">
         <v>29</v>
@@ -3573,7 +3573,7 @@
         <v>85</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D85">
         <v>30</v>
@@ -3587,7 +3587,7 @@
         <v>86</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D86">
         <v>31</v>
@@ -3601,7 +3601,7 @@
         <v>87</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D87">
         <v>32</v>
@@ -3615,7 +3615,7 @@
         <v>88</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D88">
         <v>33</v>
@@ -3629,7 +3629,7 @@
         <v>89</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D89">
         <v>34</v>
@@ -3643,7 +3643,7 @@
         <v>90</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D90">
         <v>35</v>
@@ -3657,7 +3657,7 @@
         <v>91</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D91">
         <v>36</v>
@@ -3671,7 +3671,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D92">
         <v>37</v>
@@ -3685,7 +3685,7 @@
         <v>93</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D93">
         <v>38</v>
@@ -3699,7 +3699,7 @@
         <v>94</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D94">
         <v>39</v>
@@ -3713,7 +3713,7 @@
         <v>95</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D95">
         <v>40</v>
@@ -3727,7 +3727,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D96">
         <v>41</v>
@@ -3741,7 +3741,7 @@
         <v>97</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D97">
         <v>42</v>
@@ -3755,7 +3755,7 @@
         <v>98</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D98">
         <v>43</v>
@@ -3785,7 +3785,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" ht="21" spans="1:3">
@@ -3796,7 +3796,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" ht="21" spans="1:3">
@@ -3807,7 +3807,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" ht="21" spans="1:3">
@@ -3818,7 +3818,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" ht="21" spans="1:3">
@@ -3829,7 +3829,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" ht="21" spans="1:3">
@@ -3840,7 +3840,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" ht="21" spans="1:3">
@@ -3851,7 +3851,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" ht="21" spans="1:3">
@@ -3862,7 +3862,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110" ht="21" spans="1:3">
@@ -3873,7 +3873,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" ht="21" spans="1:3">
@@ -3884,7 +3884,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" ht="21" spans="1:3">
@@ -3895,7 +3895,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" ht="21" spans="1:3">
@@ -3906,7 +3906,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" ht="21" spans="1:3">
@@ -3917,7 +3917,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" ht="21" spans="1:3">
@@ -3928,7 +3928,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" ht="21" spans="1:3">
@@ -3939,7 +3939,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" ht="21" spans="1:3">
@@ -3950,7 +3950,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" ht="21" spans="1:3">
@@ -3961,7 +3961,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" ht="21" spans="1:3">
@@ -3972,7 +3972,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" ht="21" spans="1:3">
@@ -3983,7 +3983,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" ht="21" spans="1:3">
@@ -3994,7 +3994,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" ht="21" spans="1:3">
@@ -4005,7 +4005,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" ht="21" spans="1:3">
@@ -4016,7 +4016,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" ht="21" spans="1:3">
@@ -4027,7 +4027,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" ht="21" spans="1:3">
@@ -4038,7 +4038,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" ht="21" spans="1:3">
@@ -4049,7 +4049,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" ht="21" spans="1:3">
@@ -4060,7 +4060,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" ht="21" spans="1:3">
@@ -4071,7 +4071,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" ht="21" spans="1:3">
@@ -4082,7 +4082,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" ht="21" spans="1:3">
@@ -4093,7 +4093,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" ht="21" spans="1:3">
@@ -4104,7 +4104,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" ht="21" spans="1:3">
@@ -4115,7 +4115,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" ht="21" spans="1:3">
@@ -4126,7 +4126,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" ht="21" spans="1:3">
@@ -4137,7 +4137,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="135" ht="21" spans="1:3">
@@ -4148,7 +4148,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" ht="21" spans="1:3">
@@ -4159,7 +4159,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138" ht="21" spans="2:3">
@@ -4174,7 +4174,7 @@
         <v>137</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140" ht="21" spans="1:3">
@@ -4185,7 +4185,7 @@
         <v>138</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" ht="21" spans="1:3">
@@ -4196,7 +4196,7 @@
         <v>139</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" ht="21" spans="1:3">
@@ -4207,7 +4207,7 @@
         <v>140</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143" ht="21" spans="1:3">
@@ -4218,7 +4218,7 @@
         <v>141</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144" ht="21" spans="1:3">
@@ -4229,7 +4229,7 @@
         <v>142</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145" ht="21" spans="1:3">
@@ -4240,7 +4240,7 @@
         <v>143</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146" ht="21" spans="1:3">
@@ -4251,7 +4251,7 @@
         <v>144</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147" ht="21" spans="1:3">
@@ -4262,7 +4262,7 @@
         <v>145</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148" ht="21" spans="1:3">
@@ -4273,7 +4273,7 @@
         <v>146</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149" ht="21" spans="1:3">
@@ -4284,7 +4284,7 @@
         <v>147</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="150" ht="21" spans="1:3">
@@ -4295,7 +4295,7 @@
         <v>148</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151" ht="21" spans="1:3">
@@ -4306,7 +4306,7 @@
         <v>149</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="152" ht="21" spans="1:3">
@@ -4317,7 +4317,7 @@
         <v>150</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="153" ht="21" spans="1:3">
@@ -4328,7 +4328,7 @@
         <v>151</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" ht="21" spans="1:3">
@@ -4339,7 +4339,7 @@
         <v>152</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" ht="21" spans="1:3">
@@ -4350,7 +4350,7 @@
         <v>153</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="156" ht="21" spans="1:3">
@@ -4361,7 +4361,7 @@
         <v>154</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157" ht="21" spans="1:3">
@@ -4372,7 +4372,7 @@
         <v>155</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="158" ht="21" spans="1:3">
@@ -4383,7 +4383,7 @@
         <v>156</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159" ht="21" spans="1:3">
@@ -4394,7 +4394,7 @@
         <v>157</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="160" ht="21" spans="1:3">
@@ -4405,7 +4405,7 @@
         <v>158</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161" ht="21" spans="1:3">
@@ -4416,7 +4416,7 @@
         <v>159</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162" ht="21" spans="1:3">
@@ -4427,7 +4427,7 @@
         <v>160</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="163" ht="21" spans="1:3">
@@ -4438,7 +4438,7 @@
         <v>161</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="164" ht="21" spans="1:3">
@@ -4449,7 +4449,7 @@
         <v>162</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="165" ht="21" spans="1:3">
@@ -4460,7 +4460,7 @@
         <v>163</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166" ht="21" spans="1:3">
@@ -4471,7 +4471,7 @@
         <v>164</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="167" ht="21" spans="1:3">
@@ -4482,7 +4482,7 @@
         <v>165</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="168" ht="21" spans="1:3">
@@ -4493,7 +4493,7 @@
         <v>166</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169" ht="21" spans="1:3">
@@ -4504,7 +4504,7 @@
         <v>167</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="170" ht="21" spans="1:3">
@@ -4515,7 +4515,7 @@
         <v>168</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="171" ht="21" spans="1:3">
@@ -4526,7 +4526,7 @@
         <v>169</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" ht="21" spans="1:3">
@@ -4537,7 +4537,7 @@
         <v>170</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173" ht="21" spans="1:3">
@@ -4548,7 +4548,7 @@
         <v>171</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="174" ht="21" spans="1:3">
@@ -4559,7 +4559,7 @@
         <v>172</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="176" ht="21" spans="2:3">
@@ -4574,7 +4574,7 @@
         <v>174</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="178" ht="21" spans="1:3">
@@ -4585,7 +4585,7 @@
         <v>175</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="179" ht="21" spans="1:3">
@@ -4596,7 +4596,7 @@
         <v>176</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="180" ht="21" spans="1:3">
@@ -4607,7 +4607,7 @@
         <v>177</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="181" ht="21" spans="1:3">
@@ -4618,7 +4618,7 @@
         <v>178</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="182" ht="21" spans="1:3">
@@ -4629,7 +4629,7 @@
         <v>179</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="183" ht="21" spans="1:3">
@@ -4640,7 +4640,7 @@
         <v>180</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184" ht="21" spans="1:3">
@@ -4651,7 +4651,7 @@
         <v>181</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="185" ht="21" spans="1:3">
@@ -4662,7 +4662,7 @@
         <v>182</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="186" ht="21" spans="1:3">
@@ -4673,7 +4673,7 @@
         <v>183</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="187" ht="21" spans="1:3">
@@ -4684,7 +4684,7 @@
         <v>184</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="188" ht="21" spans="1:3">
@@ -4695,7 +4695,7 @@
         <v>185</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="189" ht="21" spans="1:3">
@@ -4706,7 +4706,7 @@
         <v>186</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="190" ht="21" spans="1:3">
@@ -4717,7 +4717,7 @@
         <v>187</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="191" ht="21" spans="1:3">
@@ -4728,7 +4728,7 @@
         <v>188</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="192" ht="21" spans="1:3">
@@ -4739,7 +4739,7 @@
         <v>189</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="193" ht="21" spans="1:3">
@@ -4750,7 +4750,7 @@
         <v>190</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="194" ht="21" spans="1:3">
@@ -4761,7 +4761,7 @@
         <v>191</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="195" ht="21" spans="1:3">
@@ -4772,7 +4772,7 @@
         <v>192</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="196" ht="21" spans="1:3">
@@ -4783,7 +4783,7 @@
         <v>193</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="197" ht="21" spans="1:3">
@@ -4794,7 +4794,7 @@
         <v>194</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198" ht="21" spans="1:3">
@@ -4805,7 +4805,7 @@
         <v>195</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="199" ht="21" spans="1:3">
@@ -4816,7 +4816,7 @@
         <v>196</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="200" ht="21" spans="1:3">
@@ -4827,7 +4827,7 @@
         <v>197</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="201" ht="21" spans="1:3">
@@ -4838,7 +4838,7 @@
         <v>198</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="202" ht="21" spans="1:3">
@@ -4849,7 +4849,7 @@
         <v>199</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="203" ht="21" spans="1:3">
@@ -4860,7 +4860,7 @@
         <v>200</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="204" ht="21" spans="1:3">
@@ -4871,7 +4871,7 @@
         <v>201</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="205" ht="21" spans="1:3">
@@ -4882,7 +4882,7 @@
         <v>202</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="206" ht="21" spans="1:3">
@@ -4893,7 +4893,7 @@
         <v>203</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="207" ht="21" spans="1:3">
@@ -4904,7 +4904,7 @@
         <v>204</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="208" ht="21" spans="1:3">
@@ -4915,7 +4915,7 @@
         <v>205</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="209" ht="21" spans="1:3">
@@ -4926,7 +4926,7 @@
         <v>206</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="210" ht="21" spans="1:3">
@@ -4937,7 +4937,7 @@
         <v>207</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="211" ht="21" spans="1:3">
@@ -4948,7 +4948,7 @@
         <v>208</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="212" ht="21" spans="1:3">
@@ -4969,7 +4969,7 @@
         <v>210</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="215" ht="21" spans="1:3">
@@ -4980,7 +4980,7 @@
         <v>211</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="216" ht="21" spans="1:3">
@@ -4991,7 +4991,7 @@
         <v>212</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="217" ht="21" spans="1:3">
@@ -5002,7 +5002,7 @@
         <v>213</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="218" ht="21" spans="1:3">
@@ -5013,7 +5013,7 @@
         <v>214</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="219" ht="21" spans="1:3">
@@ -5024,7 +5024,7 @@
         <v>215</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="220" ht="21" spans="1:3">
@@ -5035,7 +5035,7 @@
         <v>216</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="221" ht="21" spans="1:3">
@@ -5046,7 +5046,7 @@
         <v>217</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="222" ht="21" spans="1:3">
@@ -5057,7 +5057,7 @@
         <v>218</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="223" ht="21" spans="1:3">
@@ -5068,7 +5068,7 @@
         <v>219</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="224" ht="21" spans="1:3">
@@ -5079,7 +5079,7 @@
         <v>220</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="225" ht="21" spans="1:3">
@@ -5090,7 +5090,7 @@
         <v>221</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="226" ht="21" spans="1:3">
@@ -5101,7 +5101,7 @@
         <v>222</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="227" ht="21" spans="1:3">
@@ -5112,7 +5112,7 @@
         <v>223</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="228" ht="21" spans="1:3">
@@ -5123,7 +5123,7 @@
         <v>224</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="229" ht="21" spans="1:3">
@@ -5134,7 +5134,7 @@
         <v>225</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="230" ht="21" spans="1:3">
@@ -5145,7 +5145,7 @@
         <v>226</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="231" ht="21" spans="1:3">
@@ -5156,7 +5156,7 @@
         <v>227</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="232" ht="21" spans="1:3">
@@ -5167,7 +5167,7 @@
         <v>228</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="233" ht="21" spans="1:3">
@@ -5178,7 +5178,7 @@
         <v>229</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="234" ht="21" spans="1:3">
@@ -5189,7 +5189,7 @@
         <v>230</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="235" ht="21" spans="1:3">
@@ -5200,7 +5200,7 @@
         <v>231</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="236" ht="21" spans="2:3">
@@ -5219,7 +5219,7 @@
         <v>233</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="239" ht="21" spans="1:3">
@@ -5230,7 +5230,7 @@
         <v>234</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="240" ht="21" spans="1:3">
@@ -5241,7 +5241,7 @@
         <v>235</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="241" ht="21" spans="1:3">
@@ -5252,7 +5252,7 @@
         <v>236</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="242" ht="21" spans="1:3">
@@ -5263,7 +5263,7 @@
         <v>237</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="243" ht="21" spans="1:3">
@@ -5274,7 +5274,7 @@
         <v>238</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="244" ht="21" spans="1:3">
@@ -5285,7 +5285,7 @@
         <v>239</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="245" ht="21" spans="1:3">
@@ -5296,7 +5296,7 @@
         <v>240</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="246" ht="21" spans="1:3">
@@ -5307,7 +5307,7 @@
         <v>241</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="247" ht="21" spans="1:3">
@@ -5318,7 +5318,7 @@
         <v>242</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="248" ht="21" spans="1:3">
@@ -5329,7 +5329,7 @@
         <v>243</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="249" ht="21" spans="1:3">
@@ -5340,7 +5340,7 @@
         <v>244</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="250" ht="21" spans="1:3">
@@ -5351,7 +5351,7 @@
         <v>245</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="251" ht="21" spans="1:3">
@@ -5362,7 +5362,7 @@
         <v>246</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="252" ht="21" spans="1:3">
@@ -5373,7 +5373,7 @@
         <v>247</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="253" ht="21" spans="1:3">
@@ -5384,7 +5384,7 @@
         <v>248</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="254" ht="21" spans="1:3">
@@ -5395,7 +5395,7 @@
         <v>249</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="255" ht="21" spans="1:3">
@@ -5406,7 +5406,7 @@
         <v>250</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="256" ht="21" spans="1:3">
@@ -5417,7 +5417,7 @@
         <v>251</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="257" ht="21" spans="1:3">
@@ -5428,7 +5428,7 @@
         <v>252</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="258" ht="21" spans="1:3">
@@ -5439,7 +5439,7 @@
         <v>253</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="259" ht="21" spans="1:3">
@@ -5450,7 +5450,7 @@
         <v>254</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="260" ht="21" spans="1:3">
@@ -5461,7 +5461,7 @@
         <v>255</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="261" ht="21" spans="1:3">
@@ -5472,7 +5472,7 @@
         <v>256</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="262" ht="21" spans="1:3">
@@ -5483,7 +5483,7 @@
         <v>257</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="263" ht="21" spans="1:3">
@@ -5494,7 +5494,7 @@
         <v>258</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="264" ht="21" spans="1:3">
@@ -5505,7 +5505,7 @@
         <v>259</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="265" ht="21" spans="1:3">
@@ -5516,7 +5516,7 @@
         <v>260</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="266" ht="21" spans="1:3">
@@ -5527,7 +5527,7 @@
         <v>261</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="267" ht="21" spans="1:3">
@@ -5538,7 +5538,7 @@
         <v>262</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="268" ht="21" spans="1:3">
@@ -5549,7 +5549,7 @@
         <v>263</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="269" ht="21" spans="1:3">
@@ -5560,7 +5560,7 @@
         <v>264</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="270" ht="21" spans="1:3">
@@ -5571,7 +5571,7 @@
         <v>265</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="271" ht="21" spans="1:3">
@@ -5582,7 +5582,7 @@
         <v>89</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="272" ht="21" spans="1:3">
@@ -5593,7 +5593,7 @@
         <v>266</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="273" ht="21" spans="2:3">
@@ -5612,7 +5612,7 @@
         <v>268</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="276" ht="21" spans="1:3">
@@ -5623,7 +5623,7 @@
         <v>269</v>
       </c>
       <c r="C276" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="277" ht="21" spans="1:3">
@@ -5634,7 +5634,7 @@
         <v>270</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="278" ht="21" spans="1:3">
@@ -5645,7 +5645,7 @@
         <v>271</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="279" ht="21" spans="1:3">
@@ -5656,7 +5656,7 @@
         <v>272</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="280" ht="21" spans="1:3">
@@ -5667,7 +5667,7 @@
         <v>273</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="281" ht="21" spans="1:3">
@@ -5678,7 +5678,7 @@
         <v>274</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="282" ht="21" spans="1:3">
@@ -5689,7 +5689,7 @@
         <v>275</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="283" ht="21" spans="1:3">
@@ -5700,7 +5700,7 @@
         <v>276</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="284" ht="21" spans="1:3">
@@ -5711,7 +5711,7 @@
         <v>277</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="285" ht="21" spans="1:3">
@@ -5722,7 +5722,7 @@
         <v>278</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="286" ht="21" spans="1:3">
@@ -5733,7 +5733,7 @@
         <v>279</v>
       </c>
       <c r="C286" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="287" ht="21" spans="1:3">
@@ -5744,7 +5744,7 @@
         <v>280</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="288" ht="21" spans="1:3">
@@ -5755,7 +5755,7 @@
         <v>281</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="289" ht="21" spans="1:3">
@@ -5766,7 +5766,7 @@
         <v>282</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="290" ht="21" spans="1:3">
@@ -5777,7 +5777,7 @@
         <v>283</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="291" ht="21" spans="1:3">
@@ -5788,7 +5788,7 @@
         <v>284</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="292" ht="21" spans="1:3">
@@ -5799,7 +5799,7 @@
         <v>285</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="293" ht="21" spans="1:3">
@@ -5810,7 +5810,7 @@
         <v>286</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="294" ht="21" spans="2:3">
@@ -5829,7 +5829,7 @@
         <v>288</v>
       </c>
       <c r="C296" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="297" ht="21" spans="1:3">
@@ -5840,7 +5840,7 @@
         <v>289</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="298" ht="21" spans="1:3">
@@ -5851,7 +5851,7 @@
         <v>290</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="299" ht="21" spans="1:3">
@@ -5862,7 +5862,7 @@
         <v>291</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="300" ht="21" spans="1:3">
@@ -5873,7 +5873,7 @@
         <v>292</v>
       </c>
       <c r="C300" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="301" ht="21" spans="1:3">
@@ -5884,7 +5884,7 @@
         <v>293</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="302" ht="21" spans="1:3">
@@ -5895,7 +5895,7 @@
         <v>294</v>
       </c>
       <c r="C302" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="303" ht="21" spans="1:3">
@@ -5906,7 +5906,7 @@
         <v>295</v>
       </c>
       <c r="C303" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="304" ht="21" spans="1:3">
@@ -5917,7 +5917,7 @@
         <v>296</v>
       </c>
       <c r="C304" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="305" ht="21" spans="1:3">
@@ -5928,7 +5928,7 @@
         <v>297</v>
       </c>
       <c r="C305" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="306" ht="21" spans="1:3">
@@ -5939,7 +5939,7 @@
         <v>298</v>
       </c>
       <c r="C306" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="307" ht="21" spans="1:3">
@@ -5950,7 +5950,7 @@
         <v>299</v>
       </c>
       <c r="C307" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="308" ht="21" spans="1:3">
@@ -5961,7 +5961,7 @@
         <v>300</v>
       </c>
       <c r="C308" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="309" ht="21" spans="1:3">
@@ -5972,7 +5972,7 @@
         <v>301</v>
       </c>
       <c r="C309" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="310" ht="21" spans="1:3">
@@ -5983,7 +5983,7 @@
         <v>302</v>
       </c>
       <c r="C310" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="311" ht="21" spans="1:3">
@@ -5994,7 +5994,7 @@
         <v>303</v>
       </c>
       <c r="C311" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="312" ht="21" spans="1:3">
@@ -6005,7 +6005,7 @@
         <v>304</v>
       </c>
       <c r="C312" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="313" ht="21" spans="1:3">
@@ -6016,7 +6016,7 @@
         <v>305</v>
       </c>
       <c r="C313" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="314" ht="21" spans="1:3">
@@ -6027,7 +6027,7 @@
         <v>306</v>
       </c>
       <c r="C314" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="315" ht="21" spans="1:3">
@@ -6038,7 +6038,7 @@
         <v>307</v>
       </c>
       <c r="C315" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="316" ht="21" spans="1:3">
@@ -6049,7 +6049,7 @@
         <v>308</v>
       </c>
       <c r="C316" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="317" ht="21" spans="1:3">
@@ -6060,7 +6060,7 @@
         <v>309</v>
       </c>
       <c r="C317" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="318" ht="21" spans="1:3">
@@ -6071,7 +6071,7 @@
         <v>310</v>
       </c>
       <c r="C318" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="319" ht="21" spans="1:3">
@@ -6082,7 +6082,7 @@
         <v>311</v>
       </c>
       <c r="C319" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="320" ht="21" spans="1:3">
@@ -6093,7 +6093,7 @@
         <v>312</v>
       </c>
       <c r="C320" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="321" ht="21" spans="1:3">
@@ -6104,7 +6104,7 @@
         <v>313</v>
       </c>
       <c r="C321" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="322" ht="21" spans="1:3">
@@ -6115,7 +6115,7 @@
         <v>314</v>
       </c>
       <c r="C322" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="323" ht="21" spans="1:3">
@@ -6126,7 +6126,7 @@
         <v>315</v>
       </c>
       <c r="C323" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="324" ht="21" spans="1:3">
@@ -6137,7 +6137,7 @@
         <v>316</v>
       </c>
       <c r="C324" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="325" ht="21" spans="1:3">
@@ -6148,7 +6148,7 @@
         <v>317</v>
       </c>
       <c r="C325" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="326" ht="21" spans="1:3">
@@ -6159,7 +6159,7 @@
         <v>318</v>
       </c>
       <c r="C326" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="327" ht="21" spans="1:3">
@@ -6170,7 +6170,7 @@
         <v>319</v>
       </c>
       <c r="C327" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="328" ht="21" spans="1:3">
@@ -6181,7 +6181,7 @@
         <v>320</v>
       </c>
       <c r="C328" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="329" ht="21" spans="1:3">
@@ -6192,7 +6192,7 @@
         <v>321</v>
       </c>
       <c r="C329" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="330" ht="21" spans="1:3">
@@ -6203,7 +6203,7 @@
         <v>322</v>
       </c>
       <c r="C330" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="331" ht="21" spans="1:3">
@@ -6214,7 +6214,7 @@
         <v>323</v>
       </c>
       <c r="C331" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="332" ht="21" spans="1:3">
@@ -6225,7 +6225,7 @@
         <v>324</v>
       </c>
       <c r="C332" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="333" ht="21" spans="1:3">
@@ -6236,7 +6236,7 @@
         <v>325</v>
       </c>
       <c r="C333" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="334" ht="21" spans="2:3">
@@ -6255,7 +6255,7 @@
         <v>327</v>
       </c>
       <c r="C336" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="337" ht="21" spans="1:3">
@@ -6266,7 +6266,7 @@
         <v>328</v>
       </c>
       <c r="C337" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="338" ht="21" spans="1:3">
@@ -6277,7 +6277,7 @@
         <v>329</v>
       </c>
       <c r="C338" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="339" ht="21" spans="1:3">
@@ -6288,7 +6288,7 @@
         <v>330</v>
       </c>
       <c r="C339" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="340" ht="21" spans="1:3">
@@ -6299,7 +6299,7 @@
         <v>331</v>
       </c>
       <c r="C340" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="341" ht="21" spans="1:3">
@@ -6310,7 +6310,7 @@
         <v>332</v>
       </c>
       <c r="C341" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="342" ht="21" spans="1:3">
@@ -6321,7 +6321,7 @@
         <v>333</v>
       </c>
       <c r="C342" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="343" ht="21" spans="1:3">
@@ -6332,7 +6332,7 @@
         <v>334</v>
       </c>
       <c r="C343" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="344" ht="21" spans="1:3">
@@ -6343,7 +6343,7 @@
         <v>335</v>
       </c>
       <c r="C344" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="345" ht="21" spans="1:3">
@@ -6354,7 +6354,7 @@
         <v>336</v>
       </c>
       <c r="C345" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="346" ht="21" spans="1:3">
@@ -6365,7 +6365,7 @@
         <v>337</v>
       </c>
       <c r="C346" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="347" ht="21" spans="1:3">
@@ -6376,7 +6376,7 @@
         <v>338</v>
       </c>
       <c r="C347" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="348" ht="21" spans="1:3">
@@ -6387,7 +6387,7 @@
         <v>339</v>
       </c>
       <c r="C348" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="349" ht="21" spans="1:3">
@@ -6398,7 +6398,7 @@
         <v>340</v>
       </c>
       <c r="C349" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="350" ht="21" spans="1:3">
@@ -6409,7 +6409,7 @@
         <v>341</v>
       </c>
       <c r="C350" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="351" ht="21" spans="1:3">
@@ -6420,7 +6420,7 @@
         <v>342</v>
       </c>
       <c r="C351" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="352" ht="21" spans="1:3">
@@ -6431,7 +6431,7 @@
         <v>343</v>
       </c>
       <c r="C352" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="353" ht="21" spans="1:3">
@@ -6442,7 +6442,7 @@
         <v>344</v>
       </c>
       <c r="C353" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="354" ht="21" spans="2:3">
@@ -6461,7 +6461,7 @@
         <v>346</v>
       </c>
       <c r="C356" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="357" ht="21" spans="1:3">
@@ -6472,7 +6472,7 @@
         <v>347</v>
       </c>
       <c r="C357" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="358" ht="21" spans="1:3">
@@ -6483,7 +6483,7 @@
         <v>348</v>
       </c>
       <c r="C358" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="359" ht="21" spans="1:3">
@@ -6494,7 +6494,7 @@
         <v>349</v>
       </c>
       <c r="C359" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="360" ht="21" spans="1:3">
@@ -6505,7 +6505,7 @@
         <v>350</v>
       </c>
       <c r="C360" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="361" ht="21" spans="1:3">
@@ -6516,7 +6516,7 @@
         <v>351</v>
       </c>
       <c r="C361" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="362" ht="21" spans="1:3">
@@ -6527,7 +6527,7 @@
         <v>352</v>
       </c>
       <c r="C362" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="363" ht="21" spans="1:3">
@@ -6538,7 +6538,7 @@
         <v>353</v>
       </c>
       <c r="C363" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="364" ht="21" spans="1:3">
@@ -6549,7 +6549,7 @@
         <v>354</v>
       </c>
       <c r="C364" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="365" ht="21" spans="1:3">
@@ -6560,7 +6560,7 @@
         <v>355</v>
       </c>
       <c r="C365" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="366" ht="21" spans="1:3">
@@ -6571,7 +6571,7 @@
         <v>356</v>
       </c>
       <c r="C366" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="367" ht="21" spans="1:3">
@@ -6582,7 +6582,7 @@
         <v>357</v>
       </c>
       <c r="C367" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="368" ht="21" spans="1:3">
@@ -6593,7 +6593,7 @@
         <v>358</v>
       </c>
       <c r="C368" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="369" ht="21" spans="1:3">
@@ -6604,7 +6604,7 @@
         <v>359</v>
       </c>
       <c r="C369" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="370" ht="21" spans="1:3">
@@ -6615,7 +6615,7 @@
         <v>360</v>
       </c>
       <c r="C370" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="371" ht="21" spans="1:3">
@@ -6626,7 +6626,7 @@
         <v>361</v>
       </c>
       <c r="C371" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="372" ht="21" spans="1:3">
@@ -6637,7 +6637,7 @@
         <v>362</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="373" ht="21" spans="1:3">
@@ -6648,7 +6648,7 @@
         <v>363</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="374" ht="21" spans="1:3">
@@ -6659,7 +6659,7 @@
         <v>364</v>
       </c>
       <c r="C374" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="375" ht="21" spans="1:3">
@@ -6670,7 +6670,7 @@
         <v>365</v>
       </c>
       <c r="C375" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="376" ht="21" spans="1:3">
@@ -6681,7 +6681,7 @@
         <v>366</v>
       </c>
       <c r="C376" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="377" ht="21" spans="1:3">
@@ -6692,7 +6692,7 @@
         <v>367</v>
       </c>
       <c r="C377" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="378" ht="21" spans="1:3">
@@ -6703,7 +6703,7 @@
         <v>368</v>
       </c>
       <c r="C378" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="379" ht="21" spans="1:3">
@@ -6714,7 +6714,7 @@
         <v>369</v>
       </c>
       <c r="C379" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="380" ht="21" spans="1:3">
@@ -6725,7 +6725,7 @@
         <v>370</v>
       </c>
       <c r="C380" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="381" ht="21" spans="1:3">
@@ -6736,7 +6736,7 @@
         <v>371</v>
       </c>
       <c r="C381" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="382" ht="21" spans="1:3">
@@ -6747,7 +6747,7 @@
         <v>372</v>
       </c>
       <c r="C382" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="383" ht="21" spans="1:3">
@@ -6758,7 +6758,7 @@
         <v>373</v>
       </c>
       <c r="C383" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="384" ht="21" spans="1:3">
@@ -6769,7 +6769,7 @@
         <v>374</v>
       </c>
       <c r="C384" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="385" ht="21" spans="1:3">
@@ -6780,7 +6780,7 @@
         <v>375</v>
       </c>
       <c r="C385" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="386" ht="21" spans="1:3">
@@ -6791,7 +6791,7 @@
         <v>376</v>
       </c>
       <c r="C386" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="387" ht="21" spans="1:3">
@@ -6802,7 +6802,7 @@
         <v>377</v>
       </c>
       <c r="C387" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="388" ht="21" spans="1:3">
@@ -6813,7 +6813,7 @@
         <v>378</v>
       </c>
       <c r="C388" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="389" ht="21" spans="1:3">
@@ -6824,7 +6824,7 @@
         <v>379</v>
       </c>
       <c r="C389" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="390" ht="21" spans="1:3">
@@ -6835,7 +6835,7 @@
         <v>379</v>
       </c>
       <c r="C390" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="391" ht="21" spans="1:3">
@@ -6846,7 +6846,7 @@
         <v>380</v>
       </c>
       <c r="C391" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="392" ht="21" spans="1:3">
@@ -6857,7 +6857,7 @@
         <v>381</v>
       </c>
       <c r="C392" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="393" ht="21" spans="1:3">
@@ -6868,7 +6868,7 @@
         <v>382</v>
       </c>
       <c r="C393" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="394" ht="21" spans="1:3">
@@ -6879,7 +6879,7 @@
         <v>383</v>
       </c>
       <c r="C394" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="395" ht="21" spans="1:3">
@@ -6890,7 +6890,7 @@
         <v>384</v>
       </c>
       <c r="C395" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="396" ht="21" spans="1:3">
@@ -6901,7 +6901,7 @@
         <v>385</v>
       </c>
       <c r="C396" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="397" ht="21" spans="1:3">
@@ -6912,7 +6912,7 @@
         <v>386</v>
       </c>
       <c r="C397" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="398" ht="21" spans="1:3">
@@ -6923,7 +6923,7 @@
         <v>387</v>
       </c>
       <c r="C398" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="399" ht="21" spans="1:3">
@@ -6934,7 +6934,7 @@
         <v>388</v>
       </c>
       <c r="C399" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="400" ht="21" spans="2:3">
@@ -6953,7 +6953,7 @@
         <v>390</v>
       </c>
       <c r="C402" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="403" ht="21" spans="1:3">
@@ -6964,7 +6964,7 @@
         <v>391</v>
       </c>
       <c r="C403" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="404" ht="21" spans="1:3">
@@ -6975,7 +6975,7 @@
         <v>392</v>
       </c>
       <c r="C404" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="405" ht="21" spans="1:3">
@@ -6986,7 +6986,7 @@
         <v>91</v>
       </c>
       <c r="C405" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="406" ht="21" spans="1:3">
@@ -6997,7 +6997,7 @@
         <v>393</v>
       </c>
       <c r="C406" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="407" ht="21" spans="1:3">
@@ -7008,7 +7008,7 @@
         <v>394</v>
       </c>
       <c r="C407" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="408" ht="21" spans="2:3">
@@ -7027,7 +7027,7 @@
         <v>396</v>
       </c>
       <c r="C410" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="411" ht="21" spans="1:3">
@@ -7038,7 +7038,7 @@
         <v>397</v>
       </c>
       <c r="C411" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="412" ht="21" spans="1:3">
@@ -7049,7 +7049,7 @@
         <v>398</v>
       </c>
       <c r="C412" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="413" ht="21" spans="1:3">
@@ -7060,7 +7060,7 @@
         <v>399</v>
       </c>
       <c r="C413" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="414" ht="21" spans="1:3">
@@ -7071,7 +7071,7 @@
         <v>400</v>
       </c>
       <c r="C414" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="415" ht="21" spans="1:3">
@@ -7082,7 +7082,7 @@
         <v>401</v>
       </c>
       <c r="C415" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="416" ht="21" spans="1:3">
@@ -7093,7 +7093,7 @@
         <v>402</v>
       </c>
       <c r="C416" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="417" ht="21" spans="1:3">
@@ -7104,7 +7104,7 @@
         <v>275</v>
       </c>
       <c r="C417" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="418" ht="21" spans="1:3">
@@ -7115,7 +7115,7 @@
         <v>403</v>
       </c>
       <c r="C418" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="419" ht="21" spans="1:3">
@@ -7126,7 +7126,7 @@
         <v>404</v>
       </c>
       <c r="C419" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="420" ht="21" spans="1:3">
@@ -7137,7 +7137,7 @@
         <v>405</v>
       </c>
       <c r="C420" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="421" ht="21" spans="1:3">
@@ -7148,7 +7148,7 @@
         <v>406</v>
       </c>
       <c r="C421" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="422" ht="21" spans="1:3">
@@ -7159,7 +7159,7 @@
         <v>407</v>
       </c>
       <c r="C422" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="423" ht="21" spans="1:3">
@@ -7170,7 +7170,7 @@
         <v>408</v>
       </c>
       <c r="C423" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="424" ht="21" spans="1:3">
@@ -7181,7 +7181,7 @@
         <v>409</v>
       </c>
       <c r="C424" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="425" ht="21" spans="1:3">
@@ -7192,7 +7192,7 @@
         <v>410</v>
       </c>
       <c r="C425" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="426" ht="21" spans="1:3">
@@ -7203,7 +7203,7 @@
         <v>411</v>
       </c>
       <c r="C426" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="427" ht="21" spans="1:3">
@@ -7214,7 +7214,7 @@
         <v>412</v>
       </c>
       <c r="C427" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="428" ht="21" spans="1:3">
@@ -7225,7 +7225,7 @@
         <v>413</v>
       </c>
       <c r="C428" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="429" ht="21" spans="1:3">
@@ -7236,7 +7236,7 @@
         <v>414</v>
       </c>
       <c r="C429" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="430" ht="21" spans="1:3">
@@ -7247,7 +7247,7 @@
         <v>415</v>
       </c>
       <c r="C430" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="431" ht="21" spans="1:3">
@@ -7258,7 +7258,7 @@
         <v>416</v>
       </c>
       <c r="C431" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="432" ht="21" spans="1:3">
@@ -7269,7 +7269,7 @@
         <v>417</v>
       </c>
       <c r="C432" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="433" ht="21" spans="1:3">
@@ -7280,7 +7280,7 @@
         <v>418</v>
       </c>
       <c r="C433" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="434" ht="21" spans="1:3">
@@ -7291,7 +7291,7 @@
         <v>419</v>
       </c>
       <c r="C434" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="435" ht="21" spans="1:3">
@@ -7302,7 +7302,7 @@
         <v>420</v>
       </c>
       <c r="C435" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="436" ht="21" spans="1:3">
@@ -7313,7 +7313,7 @@
         <v>421</v>
       </c>
       <c r="C436" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="437" ht="21" spans="1:3">
@@ -7324,7 +7324,7 @@
         <v>422</v>
       </c>
       <c r="C437" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="438" ht="21" spans="1:3">
@@ -7335,7 +7335,7 @@
         <v>423</v>
       </c>
       <c r="C438" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="439" ht="21" spans="1:3">
@@ -7346,7 +7346,7 @@
         <v>424</v>
       </c>
       <c r="C439" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="440" ht="21" spans="1:3">
@@ -7357,7 +7357,7 @@
         <v>425</v>
       </c>
       <c r="C440" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="441" ht="21" spans="1:3">
@@ -7368,7 +7368,7 @@
         <v>426</v>
       </c>
       <c r="C441" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="442" ht="21" spans="1:3">
@@ -7379,7 +7379,7 @@
         <v>427</v>
       </c>
       <c r="C442" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="443" ht="21" spans="1:3">
@@ -7390,7 +7390,7 @@
         <v>428</v>
       </c>
       <c r="C443" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="444" ht="21" spans="1:3">
@@ -7401,7 +7401,7 @@
         <v>429</v>
       </c>
       <c r="C444" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="445" ht="21" spans="1:3">
@@ -7412,7 +7412,7 @@
         <v>430</v>
       </c>
       <c r="C445" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="446" ht="21" spans="1:3">
@@ -7423,7 +7423,7 @@
         <v>431</v>
       </c>
       <c r="C446" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="447" ht="21" spans="1:3">
@@ -7434,7 +7434,7 @@
         <v>432</v>
       </c>
       <c r="C447" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="448" ht="21" spans="1:3">
@@ -7445,7 +7445,7 @@
         <v>433</v>
       </c>
       <c r="C448" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="449" ht="21" spans="1:3">
@@ -7456,7 +7456,7 @@
         <v>434</v>
       </c>
       <c r="C449" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="450" ht="21" spans="1:3">
@@ -7467,7 +7467,7 @@
         <v>435</v>
       </c>
       <c r="C450" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="451" ht="21" spans="1:3">
@@ -7478,7 +7478,7 @@
         <v>436</v>
       </c>
       <c r="C451" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="452" ht="21" spans="1:3">
@@ -7489,7 +7489,7 @@
         <v>437</v>
       </c>
       <c r="C452" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="453" ht="21" spans="1:3">
@@ -7500,7 +7500,7 @@
         <v>438</v>
       </c>
       <c r="C453" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="454" ht="21" spans="1:3">
@@ -7511,7 +7511,7 @@
         <v>439</v>
       </c>
       <c r="C454" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="455" ht="21" spans="1:3">
@@ -7522,7 +7522,7 @@
         <v>440</v>
       </c>
       <c r="C455" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="456" ht="21" spans="1:3">
@@ -7533,7 +7533,7 @@
         <v>441</v>
       </c>
       <c r="C456" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="457" ht="21" spans="1:3">
@@ -7544,7 +7544,7 @@
         <v>442</v>
       </c>
       <c r="C457" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="458" ht="21" spans="1:3">
@@ -7555,7 +7555,7 @@
         <v>443</v>
       </c>
       <c r="C458" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="459" ht="21" spans="1:3">
@@ -7566,7 +7566,7 @@
         <v>444</v>
       </c>
       <c r="C459" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="460" ht="21" spans="1:3">
@@ -7577,7 +7577,7 @@
         <v>445</v>
       </c>
       <c r="C460" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="461" ht="21" spans="1:3">
@@ -7588,7 +7588,7 @@
         <v>446</v>
       </c>
       <c r="C461" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="462" ht="21" spans="1:3">
@@ -7599,7 +7599,7 @@
         <v>447</v>
       </c>
       <c r="C462" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="463" ht="21" spans="1:3">
@@ -7610,7 +7610,7 @@
         <v>448</v>
       </c>
       <c r="C463" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="464" ht="21" spans="1:3">
@@ -7621,7 +7621,7 @@
         <v>449</v>
       </c>
       <c r="C464" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="465" ht="21" spans="1:3">
@@ -7632,7 +7632,7 @@
         <v>450</v>
       </c>
       <c r="C465" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="466" ht="21" spans="1:3">
@@ -7643,7 +7643,7 @@
         <v>451</v>
       </c>
       <c r="C466" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="467" ht="21" spans="1:3">
@@ -7654,7 +7654,7 @@
         <v>452</v>
       </c>
       <c r="C467" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="468" ht="21" spans="1:3">
@@ -7665,7 +7665,7 @@
         <v>453</v>
       </c>
       <c r="C468" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="469" ht="21" spans="1:3">
@@ -7676,7 +7676,7 @@
         <v>454</v>
       </c>
       <c r="C469" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="470" ht="21" spans="2:3">
@@ -7696,7 +7696,7 @@
         <v>456</v>
       </c>
       <c r="C472" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="473" ht="21" spans="1:3">
@@ -7707,7 +7707,7 @@
         <v>457</v>
       </c>
       <c r="C473" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="474" ht="21" spans="1:3">
@@ -7718,7 +7718,7 @@
         <v>458</v>
       </c>
       <c r="C474" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="475" ht="21" spans="1:3">
@@ -7729,7 +7729,7 @@
         <v>459</v>
       </c>
       <c r="C475" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="476" ht="21" spans="1:3">
@@ -7740,7 +7740,7 @@
         <v>460</v>
       </c>
       <c r="C476" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="477" ht="21" spans="1:3">
@@ -7751,7 +7751,7 @@
         <v>461</v>
       </c>
       <c r="C477" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="478" ht="21" spans="1:3">
@@ -7762,7 +7762,7 @@
         <v>462</v>
       </c>
       <c r="C478" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="479" ht="21" spans="1:3">
@@ -7773,7 +7773,7 @@
         <v>463</v>
       </c>
       <c r="C479" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="480" ht="21" spans="1:3">
@@ -7784,7 +7784,7 @@
         <v>464</v>
       </c>
       <c r="C480" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="481" ht="21" spans="1:3">
@@ -7795,7 +7795,7 @@
         <v>465</v>
       </c>
       <c r="C481" s="10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -88,13 +88,13 @@
     <t>Best time to buy and Sell stock</t>
   </si>
   <si>
+    <t>find all pairs on integer array whose sum is equal to given number</t>
+  </si>
+  <si>
+    <t>find common elements In 3 sorted arrays</t>
+  </si>
+  <si>
     <t>&lt;-&gt;</t>
-  </si>
-  <si>
-    <t>find all pairs on integer array whose sum is equal to given number</t>
-  </si>
-  <si>
-    <t>find common elements In 3 sorted arrays</t>
   </si>
   <si>
     <t>Rearrange the array in alternating positive and negative items with O(1) extra space</t>
@@ -1517,28 +1517,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1553,16 +1531,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1586,9 +1571,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1616,22 +1615,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1646,7 +1639,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1685,103 +1685,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1799,7 +1709,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1811,43 +1841,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1858,17 +1858,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1911,6 +1900,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1949,19 +1958,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1980,28 +1980,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2010,97 +2010,97 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2459,8 +2459,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -2725,8 +2725,8 @@
       <c r="B22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>24</v>
+      <c r="C22" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D22">
         <v>17</v>
@@ -2736,11 +2736,11 @@
       <c r="A23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>24</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D23">
         <v>18</v>
@@ -2751,10 +2751,10 @@
         <v>5</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D24">
         <v>19</v>
@@ -2768,7 +2768,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D25">
         <v>20</v>
@@ -2782,7 +2782,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D26">
         <v>21</v>
@@ -2796,7 +2796,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D27">
         <v>22</v>
@@ -2810,7 +2810,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D28">
         <v>23</v>
@@ -2824,7 +2824,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D29">
         <v>24</v>
@@ -2838,7 +2838,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D30">
         <v>25</v>
@@ -2852,7 +2852,7 @@
         <v>33</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D31">
         <v>26</v>
@@ -2866,7 +2866,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D32">
         <v>27</v>
@@ -2880,7 +2880,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D33">
         <v>28</v>
@@ -2894,7 +2894,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D34">
         <v>29</v>
@@ -2908,7 +2908,7 @@
         <v>37</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D35">
         <v>30</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D36">
         <v>31</v>
@@ -2936,7 +2936,7 @@
         <v>39</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D37">
         <v>32</v>
@@ -2950,7 +2950,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D38">
         <v>33</v>
@@ -2964,7 +2964,7 @@
         <v>41</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D39">
         <v>34</v>
@@ -2978,7 +2978,7 @@
         <v>42</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D40">
         <v>35</v>
@@ -2992,7 +2992,7 @@
         <v>43</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D41">
         <v>36</v>
@@ -3000,19 +3000,12 @@
     </row>
     <row r="42" ht="21" spans="2:3">
       <c r="B42" s="11"/>
-      <c r="C42" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" ht="21" spans="1:4">
+      <c r="C42" s="10"/>
+    </row>
+    <row r="43" ht="21" spans="1:3">
       <c r="A43" s="6"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
+      <c r="C43" s="10"/>
     </row>
     <row r="44" ht="21" spans="1:4">
       <c r="A44" s="12" t="s">
@@ -3025,7 +3018,7 @@
         <v>7</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" ht="21" spans="1:4">
@@ -3039,7 +3032,7 @@
         <v>7</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" ht="21" spans="1:4">
@@ -3050,10 +3043,10 @@
         <v>47</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" ht="21" spans="1:4">
@@ -3064,10 +3057,10 @@
         <v>48</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" ht="21" spans="1:4">
@@ -3078,10 +3071,10 @@
         <v>49</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D48">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" ht="21" spans="1:4">
@@ -3092,10 +3085,10 @@
         <v>50</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D49">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" ht="21" spans="1:4">
@@ -3106,10 +3099,10 @@
         <v>51</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D50">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" ht="21" spans="1:4">
@@ -3120,10 +3113,10 @@
         <v>52</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D51">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" ht="21" spans="1:4">
@@ -3134,10 +3127,10 @@
         <v>53</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" ht="21" spans="1:4">
@@ -3148,10 +3141,10 @@
         <v>54</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D53">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" ht="21" spans="1:3">
@@ -3236,8 +3229,8 @@
       <c r="B61" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>24</v>
+      <c r="C61" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D61">
         <v>6</v>
@@ -3247,11 +3240,11 @@
       <c r="A62" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D62">
         <v>7</v>
@@ -3261,11 +3254,11 @@
       <c r="A63" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D63">
         <v>8</v>
@@ -3279,7 +3272,7 @@
         <v>64</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D64">
         <v>9</v>
@@ -3293,7 +3286,7 @@
         <v>65</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D65">
         <v>10</v>
@@ -3307,7 +3300,7 @@
         <v>66</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D66">
         <v>11</v>
@@ -3321,7 +3314,7 @@
         <v>67</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D67">
         <v>12</v>
@@ -3335,7 +3328,7 @@
         <v>68</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D68">
         <v>13</v>
@@ -3349,7 +3342,7 @@
         <v>69</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D69">
         <v>14</v>
@@ -3363,7 +3356,7 @@
         <v>70</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D70">
         <v>15</v>
@@ -3377,7 +3370,7 @@
         <v>71</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D71">
         <v>16</v>
@@ -3391,7 +3384,7 @@
         <v>72</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D72">
         <v>17</v>
@@ -3405,7 +3398,7 @@
         <v>73</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D73">
         <v>18</v>
@@ -3419,7 +3412,7 @@
         <v>74</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D74">
         <v>19</v>
@@ -3433,7 +3426,7 @@
         <v>75</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D75">
         <v>20</v>
@@ -3447,7 +3440,7 @@
         <v>76</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D76">
         <v>21</v>
@@ -3461,7 +3454,7 @@
         <v>77</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D77">
         <v>22</v>
@@ -3475,7 +3468,7 @@
         <v>78</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D78">
         <v>23</v>
@@ -3489,7 +3482,7 @@
         <v>79</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D79">
         <v>24</v>
@@ -3503,7 +3496,7 @@
         <v>80</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D80">
         <v>25</v>
@@ -3517,7 +3510,7 @@
         <v>81</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D81">
         <v>26</v>
@@ -3531,7 +3524,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D82">
         <v>27</v>
@@ -3545,7 +3538,7 @@
         <v>83</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D83">
         <v>28</v>
@@ -3559,7 +3552,7 @@
         <v>84</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D84">
         <v>29</v>
@@ -3573,7 +3566,7 @@
         <v>85</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D85">
         <v>30</v>
@@ -3587,7 +3580,7 @@
         <v>86</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D86">
         <v>31</v>
@@ -3601,7 +3594,7 @@
         <v>87</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D87">
         <v>32</v>
@@ -3615,7 +3608,7 @@
         <v>88</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D88">
         <v>33</v>
@@ -3629,7 +3622,7 @@
         <v>89</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D89">
         <v>34</v>
@@ -3643,7 +3636,7 @@
         <v>90</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D90">
         <v>35</v>
@@ -3657,7 +3650,7 @@
         <v>91</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D91">
         <v>36</v>
@@ -3671,7 +3664,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D92">
         <v>37</v>
@@ -3685,7 +3678,7 @@
         <v>93</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D93">
         <v>38</v>
@@ -3699,7 +3692,7 @@
         <v>94</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D94">
         <v>39</v>
@@ -3713,7 +3706,7 @@
         <v>95</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D95">
         <v>40</v>
@@ -3727,7 +3720,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D96">
         <v>41</v>
@@ -3741,7 +3734,7 @@
         <v>97</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D97">
         <v>42</v>
@@ -3755,7 +3748,7 @@
         <v>98</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D98">
         <v>43</v>
@@ -3766,7 +3759,7 @@
       <c r="B100" s="11"/>
       <c r="C100" s="10"/>
     </row>
-    <row r="101" ht="21" spans="1:3">
+    <row r="101" ht="21" spans="1:4">
       <c r="A101" s="6" t="s">
         <v>99</v>
       </c>
@@ -3776,52 +3769,67 @@
       <c r="C101" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="102" ht="21" spans="1:3">
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" ht="21" spans="1:4">
       <c r="A102" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C102" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="103" ht="21" spans="1:3">
+      <c r="C102" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" ht="21" spans="1:4">
       <c r="A103" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C103" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="104" ht="21" spans="1:3">
+      <c r="C103" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" ht="21" spans="1:4">
       <c r="A104" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C104" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="105" ht="21" spans="1:3">
+      <c r="C104" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" ht="21" spans="1:4">
       <c r="A105" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="9" t="s">
         <v>104</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="106" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" ht="21" spans="1:4">
       <c r="A106" s="6" t="s">
         <v>99</v>
       </c>
@@ -3829,10 +3837,13 @@
         <v>105</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="107" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" ht="21" spans="1:4">
       <c r="A107" s="6" t="s">
         <v>99</v>
       </c>
@@ -3840,10 +3851,13 @@
         <v>106</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="108" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D107">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" ht="21" spans="1:4">
       <c r="A108" s="6" t="s">
         <v>99</v>
       </c>
@@ -3851,10 +3865,13 @@
         <v>107</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="109" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" ht="21" spans="1:4">
       <c r="A109" s="6" t="s">
         <v>99</v>
       </c>
@@ -3862,10 +3879,13 @@
         <v>108</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="110" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D109">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" ht="21" spans="1:4">
       <c r="A110" s="6" t="s">
         <v>99</v>
       </c>
@@ -3873,10 +3893,13 @@
         <v>109</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="111" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" ht="21" spans="1:4">
       <c r="A111" s="6" t="s">
         <v>99</v>
       </c>
@@ -3884,10 +3907,13 @@
         <v>110</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="112" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D111">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" ht="21" spans="1:4">
       <c r="A112" s="6" t="s">
         <v>99</v>
       </c>
@@ -3895,10 +3921,13 @@
         <v>111</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="113" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D112">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" ht="21" spans="1:4">
       <c r="A113" s="6" t="s">
         <v>99</v>
       </c>
@@ -3906,10 +3935,13 @@
         <v>112</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="114" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D113">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" ht="21" spans="1:4">
       <c r="A114" s="6" t="s">
         <v>99</v>
       </c>
@@ -3917,10 +3949,13 @@
         <v>113</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="115" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D114">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" ht="21" spans="1:4">
       <c r="A115" s="6" t="s">
         <v>99</v>
       </c>
@@ -3928,10 +3963,13 @@
         <v>114</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="116" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D115">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" ht="21" spans="1:4">
       <c r="A116" s="6" t="s">
         <v>99</v>
       </c>
@@ -3939,10 +3977,13 @@
         <v>115</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="117" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D116">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="21" spans="1:4">
       <c r="A117" s="6" t="s">
         <v>99</v>
       </c>
@@ -3950,10 +3991,13 @@
         <v>116</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="118" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D117">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" ht="21" spans="1:4">
       <c r="A118" s="6" t="s">
         <v>99</v>
       </c>
@@ -3961,10 +4005,13 @@
         <v>117</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="119" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D118">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" ht="21" spans="1:4">
       <c r="A119" s="6" t="s">
         <v>99</v>
       </c>
@@ -3972,10 +4019,13 @@
         <v>118</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="120" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D119">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" ht="21" spans="1:4">
       <c r="A120" s="6" t="s">
         <v>99</v>
       </c>
@@ -3983,10 +4033,13 @@
         <v>119</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="121" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D120">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" ht="21" spans="1:4">
       <c r="A121" s="6" t="s">
         <v>99</v>
       </c>
@@ -3994,10 +4047,13 @@
         <v>120</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="122" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D121">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" ht="21" spans="1:4">
       <c r="A122" s="6" t="s">
         <v>99</v>
       </c>
@@ -4005,10 +4061,13 @@
         <v>121</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="123" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D122">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" ht="21" spans="1:4">
       <c r="A123" s="6" t="s">
         <v>99</v>
       </c>
@@ -4016,10 +4075,13 @@
         <v>122</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="124" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D123">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" ht="21" spans="1:4">
       <c r="A124" s="6" t="s">
         <v>99</v>
       </c>
@@ -4027,10 +4089,13 @@
         <v>123</v>
       </c>
       <c r="C124" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D124">
         <v>24</v>
       </c>
     </row>
-    <row r="125" ht="21" spans="1:3">
+    <row r="125" ht="21" spans="1:4">
       <c r="A125" s="6" t="s">
         <v>99</v>
       </c>
@@ -4038,10 +4103,13 @@
         <v>124</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="126" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D125">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" ht="21" spans="1:4">
       <c r="A126" s="6" t="s">
         <v>99</v>
       </c>
@@ -4049,10 +4117,13 @@
         <v>125</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="127" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D126">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127" ht="21" spans="1:4">
       <c r="A127" s="6" t="s">
         <v>99</v>
       </c>
@@ -4060,10 +4131,13 @@
         <v>126</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="128" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D127">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128" ht="21" spans="1:4">
       <c r="A128" s="6" t="s">
         <v>99</v>
       </c>
@@ -4071,10 +4145,13 @@
         <v>127</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="129" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D128">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" ht="21" spans="1:4">
       <c r="A129" s="6" t="s">
         <v>99</v>
       </c>
@@ -4082,10 +4159,13 @@
         <v>128</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="130" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D129">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="130" ht="21" spans="1:4">
       <c r="A130" s="6" t="s">
         <v>99</v>
       </c>
@@ -4093,10 +4173,13 @@
         <v>129</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="131" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D130">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" ht="21" spans="1:4">
       <c r="A131" s="6" t="s">
         <v>99</v>
       </c>
@@ -4104,10 +4187,13 @@
         <v>130</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="132" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D131">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" ht="21" spans="1:4">
       <c r="A132" s="6" t="s">
         <v>99</v>
       </c>
@@ -4115,10 +4201,13 @@
         <v>131</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="133" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D132">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="133" ht="21" spans="1:4">
       <c r="A133" s="6" t="s">
         <v>99</v>
       </c>
@@ -4126,10 +4215,13 @@
         <v>132</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="134" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D133">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134" ht="21" spans="1:4">
       <c r="A134" s="6" t="s">
         <v>99</v>
       </c>
@@ -4137,10 +4229,13 @@
         <v>133</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="135" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D134">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="135" ht="21" spans="1:4">
       <c r="A135" s="6" t="s">
         <v>99</v>
       </c>
@@ -4148,10 +4243,13 @@
         <v>134</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="136" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D135">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="136" ht="21" spans="1:4">
       <c r="A136" s="6" t="s">
         <v>99</v>
       </c>
@@ -4159,14 +4257,17 @@
         <v>135</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="D136">
+        <v>36</v>
       </c>
     </row>
     <row r="138" ht="21" spans="2:3">
       <c r="B138" s="11"/>
       <c r="C138" s="10"/>
     </row>
-    <row r="139" ht="21" spans="1:3">
+    <row r="139" ht="21" spans="1:4">
       <c r="A139" s="12" t="s">
         <v>136</v>
       </c>
@@ -4174,10 +4275,13 @@
         <v>137</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="140" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" ht="21" spans="1:4">
       <c r="A140" s="12" t="s">
         <v>136</v>
       </c>
@@ -4185,10 +4289,13 @@
         <v>138</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="141" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" ht="21" spans="1:4">
       <c r="A141" s="12" t="s">
         <v>136</v>
       </c>
@@ -4196,10 +4303,13 @@
         <v>139</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="142" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" ht="21" spans="1:4">
       <c r="A142" s="12" t="s">
         <v>136</v>
       </c>
@@ -4207,10 +4317,13 @@
         <v>140</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="143" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" ht="21" spans="1:4">
       <c r="A143" s="12" t="s">
         <v>136</v>
       </c>
@@ -4218,10 +4331,13 @@
         <v>141</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="144" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" ht="21" spans="1:4">
       <c r="A144" s="12" t="s">
         <v>136</v>
       </c>
@@ -4229,10 +4345,13 @@
         <v>142</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="145" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D144">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" ht="21" spans="1:4">
       <c r="A145" s="12" t="s">
         <v>136</v>
       </c>
@@ -4240,10 +4359,13 @@
         <v>143</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="146" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" ht="21" spans="1:4">
       <c r="A146" s="12" t="s">
         <v>136</v>
       </c>
@@ -4251,10 +4373,13 @@
         <v>144</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="147" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D146">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" ht="21" spans="1:4">
       <c r="A147" s="12" t="s">
         <v>136</v>
       </c>
@@ -4262,10 +4387,13 @@
         <v>145</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="148" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D147">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" ht="21" spans="1:4">
       <c r="A148" s="12" t="s">
         <v>136</v>
       </c>
@@ -4273,10 +4401,13 @@
         <v>146</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="149" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D148">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" ht="21" spans="1:4">
       <c r="A149" s="12" t="s">
         <v>136</v>
       </c>
@@ -4284,10 +4415,13 @@
         <v>147</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="150" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D149">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" ht="21" spans="1:4">
       <c r="A150" s="12" t="s">
         <v>136</v>
       </c>
@@ -4295,10 +4429,13 @@
         <v>148</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="151" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D150">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" ht="21" spans="1:4">
       <c r="A151" s="12" t="s">
         <v>136</v>
       </c>
@@ -4306,10 +4443,13 @@
         <v>149</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="152" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D151">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" ht="21" spans="1:4">
       <c r="A152" s="12" t="s">
         <v>136</v>
       </c>
@@ -4317,10 +4457,13 @@
         <v>150</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="153" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D152">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" ht="21" spans="1:4">
       <c r="A153" s="12" t="s">
         <v>136</v>
       </c>
@@ -4328,10 +4471,13 @@
         <v>151</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="154" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D153">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" ht="21" spans="1:4">
       <c r="A154" s="12" t="s">
         <v>136</v>
       </c>
@@ -4339,10 +4485,13 @@
         <v>152</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="155" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D154">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" ht="21" spans="1:4">
       <c r="A155" s="12" t="s">
         <v>136</v>
       </c>
@@ -4350,10 +4499,13 @@
         <v>153</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="156" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D155">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" ht="21" spans="1:4">
       <c r="A156" s="12" t="s">
         <v>136</v>
       </c>
@@ -4361,10 +4513,13 @@
         <v>154</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="157" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D156">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" ht="21" spans="1:4">
       <c r="A157" s="12" t="s">
         <v>136</v>
       </c>
@@ -4372,10 +4527,13 @@
         <v>155</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="158" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D157">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158" ht="21" spans="1:4">
       <c r="A158" s="12" t="s">
         <v>136</v>
       </c>
@@ -4383,10 +4541,13 @@
         <v>156</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="159" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D158">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" ht="21" spans="1:4">
       <c r="A159" s="12" t="s">
         <v>136</v>
       </c>
@@ -4394,10 +4555,13 @@
         <v>157</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="160" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D159">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="160" ht="21" spans="1:4">
       <c r="A160" s="12" t="s">
         <v>136</v>
       </c>
@@ -4405,10 +4569,13 @@
         <v>158</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="161" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D160">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" ht="21" spans="1:4">
       <c r="A161" s="12" t="s">
         <v>136</v>
       </c>
@@ -4416,10 +4583,13 @@
         <v>159</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="162" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D161">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" ht="21" spans="1:4">
       <c r="A162" s="12" t="s">
         <v>136</v>
       </c>
@@ -4427,10 +4597,13 @@
         <v>160</v>
       </c>
       <c r="C162" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D162">
         <v>24</v>
       </c>
     </row>
-    <row r="163" ht="21" spans="1:3">
+    <row r="163" ht="21" spans="1:4">
       <c r="A163" s="12" t="s">
         <v>136</v>
       </c>
@@ -4438,10 +4611,13 @@
         <v>161</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="164" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D163">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="164" ht="21" spans="1:4">
       <c r="A164" s="12" t="s">
         <v>136</v>
       </c>
@@ -4449,10 +4625,13 @@
         <v>162</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="165" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D164">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165" ht="21" spans="1:4">
       <c r="A165" s="12" t="s">
         <v>136</v>
       </c>
@@ -4460,10 +4639,13 @@
         <v>163</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="166" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D165">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="166" ht="21" spans="1:4">
       <c r="A166" s="12" t="s">
         <v>136</v>
       </c>
@@ -4471,10 +4653,13 @@
         <v>164</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="167" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D166">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="167" ht="21" spans="1:4">
       <c r="A167" s="12" t="s">
         <v>136</v>
       </c>
@@ -4482,10 +4667,13 @@
         <v>165</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="168" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D167">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="168" ht="21" spans="1:4">
       <c r="A168" s="12" t="s">
         <v>136</v>
       </c>
@@ -4493,10 +4681,13 @@
         <v>166</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="169" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D168">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" ht="21" spans="1:4">
       <c r="A169" s="12" t="s">
         <v>136</v>
       </c>
@@ -4504,10 +4695,13 @@
         <v>167</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="170" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D169">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" ht="21" spans="1:4">
       <c r="A170" s="12" t="s">
         <v>136</v>
       </c>
@@ -4515,10 +4709,13 @@
         <v>168</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="171" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D170">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="171" ht="21" spans="1:4">
       <c r="A171" s="12" t="s">
         <v>136</v>
       </c>
@@ -4526,10 +4723,13 @@
         <v>169</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="172" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D171">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="172" ht="21" spans="1:4">
       <c r="A172" s="12" t="s">
         <v>136</v>
       </c>
@@ -4537,10 +4737,13 @@
         <v>170</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="173" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D172">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="173" ht="21" spans="1:4">
       <c r="A173" s="12" t="s">
         <v>136</v>
       </c>
@@ -4548,10 +4751,13 @@
         <v>171</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="174" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D173">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="174" ht="21" spans="1:4">
       <c r="A174" s="12" t="s">
         <v>136</v>
       </c>
@@ -4559,14 +4765,17 @@
         <v>172</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="D174">
+        <v>36</v>
       </c>
     </row>
     <row r="176" ht="21" spans="2:3">
       <c r="B176" s="11"/>
       <c r="C176" s="10"/>
     </row>
-    <row r="177" ht="21" spans="1:3">
+    <row r="177" ht="21" spans="1:4">
       <c r="A177" s="6" t="s">
         <v>173</v>
       </c>
@@ -4574,10 +4783,13 @@
         <v>174</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="178" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" ht="21" spans="1:4">
       <c r="A178" s="6" t="s">
         <v>173</v>
       </c>
@@ -4585,10 +4797,13 @@
         <v>175</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="179" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" ht="21" spans="1:4">
       <c r="A179" s="6" t="s">
         <v>173</v>
       </c>
@@ -4596,10 +4811,13 @@
         <v>176</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="180" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" ht="21" spans="1:4">
       <c r="A180" s="6" t="s">
         <v>173</v>
       </c>
@@ -4607,10 +4825,13 @@
         <v>177</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="181" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" ht="21" spans="1:4">
       <c r="A181" s="6" t="s">
         <v>173</v>
       </c>
@@ -4618,10 +4839,13 @@
         <v>178</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="182" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D181">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" ht="21" spans="1:4">
       <c r="A182" s="6" t="s">
         <v>173</v>
       </c>
@@ -4629,10 +4853,13 @@
         <v>179</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="183" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" ht="21" spans="1:4">
       <c r="A183" s="6" t="s">
         <v>173</v>
       </c>
@@ -4640,10 +4867,13 @@
         <v>180</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="184" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D183">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" ht="21" spans="1:4">
       <c r="A184" s="6" t="s">
         <v>173</v>
       </c>
@@ -4651,10 +4881,13 @@
         <v>181</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="185" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D184">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" ht="21" spans="1:4">
       <c r="A185" s="6" t="s">
         <v>173</v>
       </c>
@@ -4662,10 +4895,13 @@
         <v>182</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="186" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D185">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" ht="21" spans="1:4">
       <c r="A186" s="6" t="s">
         <v>173</v>
       </c>
@@ -4673,10 +4909,13 @@
         <v>183</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="187" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D186">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" ht="21" spans="1:4">
       <c r="A187" s="6" t="s">
         <v>173</v>
       </c>
@@ -4684,10 +4923,13 @@
         <v>184</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="188" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D187">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" ht="21" spans="1:4">
       <c r="A188" s="6" t="s">
         <v>173</v>
       </c>
@@ -4695,10 +4937,13 @@
         <v>185</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="189" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D188">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" ht="21" spans="1:4">
       <c r="A189" s="6" t="s">
         <v>173</v>
       </c>
@@ -4706,10 +4951,13 @@
         <v>186</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="190" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D189">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" ht="21" spans="1:4">
       <c r="A190" s="6" t="s">
         <v>173</v>
       </c>
@@ -4717,10 +4965,13 @@
         <v>187</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="191" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D190">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" ht="21" spans="1:4">
       <c r="A191" s="6" t="s">
         <v>173</v>
       </c>
@@ -4728,10 +4979,13 @@
         <v>188</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="192" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D191">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" ht="21" spans="1:4">
       <c r="A192" s="6" t="s">
         <v>173</v>
       </c>
@@ -4739,10 +4993,13 @@
         <v>189</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="193" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D192">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" ht="21" spans="1:4">
       <c r="A193" s="6" t="s">
         <v>173</v>
       </c>
@@ -4750,10 +5007,13 @@
         <v>190</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="194" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D193">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194" ht="21" spans="1:4">
       <c r="A194" s="6" t="s">
         <v>173</v>
       </c>
@@ -4761,10 +5021,13 @@
         <v>191</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="195" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D194">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="195" ht="21" spans="1:4">
       <c r="A195" s="6" t="s">
         <v>173</v>
       </c>
@@ -4772,10 +5035,13 @@
         <v>192</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="196" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D195">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="196" ht="21" spans="1:4">
       <c r="A196" s="6" t="s">
         <v>173</v>
       </c>
@@ -4783,10 +5049,13 @@
         <v>193</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="197" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D196">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" ht="21" spans="1:4">
       <c r="A197" s="6" t="s">
         <v>173</v>
       </c>
@@ -4794,10 +5063,13 @@
         <v>194</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="198" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D197">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="198" ht="21" spans="1:4">
       <c r="A198" s="6" t="s">
         <v>173</v>
       </c>
@@ -4805,10 +5077,13 @@
         <v>195</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="199" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D198">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="199" ht="21" spans="1:4">
       <c r="A199" s="6" t="s">
         <v>173</v>
       </c>
@@ -4816,10 +5091,13 @@
         <v>196</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="200" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D199">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="200" ht="21" spans="1:4">
       <c r="A200" s="6" t="s">
         <v>173</v>
       </c>
@@ -4827,10 +5105,13 @@
         <v>197</v>
       </c>
       <c r="C200" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D200">
         <v>24</v>
       </c>
     </row>
-    <row r="201" ht="21" spans="1:3">
+    <row r="201" ht="21" spans="1:4">
       <c r="A201" s="6" t="s">
         <v>173</v>
       </c>
@@ -4838,10 +5119,13 @@
         <v>198</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="202" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D201">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="202" ht="21" spans="1:4">
       <c r="A202" s="6" t="s">
         <v>173</v>
       </c>
@@ -4849,10 +5133,13 @@
         <v>199</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="203" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D202">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="203" ht="21" spans="1:4">
       <c r="A203" s="6" t="s">
         <v>173</v>
       </c>
@@ -4860,10 +5147,13 @@
         <v>200</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="204" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D203">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="204" ht="21" spans="1:4">
       <c r="A204" s="6" t="s">
         <v>173</v>
       </c>
@@ -4871,10 +5161,13 @@
         <v>201</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="205" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D204">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="205" ht="21" spans="1:4">
       <c r="A205" s="6" t="s">
         <v>173</v>
       </c>
@@ -4882,10 +5175,13 @@
         <v>202</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="206" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D205">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="206" ht="21" spans="1:4">
       <c r="A206" s="6" t="s">
         <v>173</v>
       </c>
@@ -4893,10 +5189,13 @@
         <v>203</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="207" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D206">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="207" ht="21" spans="1:4">
       <c r="A207" s="6" t="s">
         <v>173</v>
       </c>
@@ -4904,10 +5203,13 @@
         <v>204</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="208" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D207">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="208" ht="21" spans="1:4">
       <c r="A208" s="6" t="s">
         <v>173</v>
       </c>
@@ -4915,10 +5217,13 @@
         <v>205</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="209" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D208">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="209" ht="21" spans="1:4">
       <c r="A209" s="6" t="s">
         <v>173</v>
       </c>
@@ -4926,10 +5231,13 @@
         <v>206</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="210" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D209">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="210" ht="21" spans="1:4">
       <c r="A210" s="6" t="s">
         <v>173</v>
       </c>
@@ -4937,10 +5245,13 @@
         <v>207</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="211" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D210">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="211" ht="21" spans="1:4">
       <c r="A211" s="6" t="s">
         <v>173</v>
       </c>
@@ -4948,7 +5259,10 @@
         <v>208</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="D211">
+        <v>35</v>
       </c>
     </row>
     <row r="212" ht="21" spans="1:3">
@@ -4961,7 +5275,7 @@
       <c r="B213" s="11"/>
       <c r="C213" s="10"/>
     </row>
-    <row r="214" ht="21" spans="1:3">
+    <row r="214" ht="21" spans="1:4">
       <c r="A214" s="6" t="s">
         <v>209</v>
       </c>
@@ -4969,10 +5283,13 @@
         <v>210</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="215" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" ht="21" spans="1:4">
       <c r="A215" s="6" t="s">
         <v>209</v>
       </c>
@@ -4980,10 +5297,13 @@
         <v>211</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="216" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" ht="21" spans="1:4">
       <c r="A216" s="6" t="s">
         <v>209</v>
       </c>
@@ -4991,10 +5311,13 @@
         <v>212</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="217" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" ht="21" spans="1:4">
       <c r="A217" s="6" t="s">
         <v>209</v>
       </c>
@@ -5002,10 +5325,13 @@
         <v>213</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="218" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D217">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" ht="21" spans="1:4">
       <c r="A218" s="6" t="s">
         <v>209</v>
       </c>
@@ -5013,10 +5339,13 @@
         <v>214</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="219" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D218">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" ht="21" spans="1:4">
       <c r="A219" s="6" t="s">
         <v>209</v>
       </c>
@@ -5024,10 +5353,13 @@
         <v>215</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="220" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D219">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" ht="21" spans="1:4">
       <c r="A220" s="6" t="s">
         <v>209</v>
       </c>
@@ -5035,10 +5367,13 @@
         <v>216</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="221" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D220">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" ht="21" spans="1:4">
       <c r="A221" s="6" t="s">
         <v>209</v>
       </c>
@@ -5046,10 +5381,13 @@
         <v>217</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="222" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D221">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" ht="21" spans="1:4">
       <c r="A222" s="6" t="s">
         <v>209</v>
       </c>
@@ -5057,10 +5395,13 @@
         <v>218</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="223" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D222">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" ht="21" spans="1:4">
       <c r="A223" s="6" t="s">
         <v>209</v>
       </c>
@@ -5068,10 +5409,13 @@
         <v>219</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="224" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D223">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" ht="21" spans="1:4">
       <c r="A224" s="6" t="s">
         <v>209</v>
       </c>
@@ -5079,10 +5423,13 @@
         <v>220</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="225" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D224">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" ht="21" spans="1:4">
       <c r="A225" s="6" t="s">
         <v>209</v>
       </c>
@@ -5090,10 +5437,13 @@
         <v>221</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="226" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D225">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226" ht="21" spans="1:4">
       <c r="A226" s="6" t="s">
         <v>209</v>
       </c>
@@ -5101,10 +5451,13 @@
         <v>222</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="227" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D226">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" ht="21" spans="1:4">
       <c r="A227" s="6" t="s">
         <v>209</v>
       </c>
@@ -5112,10 +5465,13 @@
         <v>223</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="228" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D227">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" ht="21" spans="1:4">
       <c r="A228" s="6" t="s">
         <v>209</v>
       </c>
@@ -5123,10 +5479,13 @@
         <v>224</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="229" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D228">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="229" ht="21" spans="1:4">
       <c r="A229" s="6" t="s">
         <v>209</v>
       </c>
@@ -5134,10 +5493,13 @@
         <v>225</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="230" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D229">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" ht="21" spans="1:4">
       <c r="A230" s="6" t="s">
         <v>209</v>
       </c>
@@ -5145,10 +5507,13 @@
         <v>226</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="231" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D230">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231" ht="21" spans="1:4">
       <c r="A231" s="6" t="s">
         <v>209</v>
       </c>
@@ -5156,10 +5521,13 @@
         <v>227</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="232" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D231">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="232" ht="21" spans="1:4">
       <c r="A232" s="6" t="s">
         <v>209</v>
       </c>
@@ -5167,10 +5535,13 @@
         <v>228</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="233" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D232">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="233" ht="21" spans="1:4">
       <c r="A233" s="6" t="s">
         <v>209</v>
       </c>
@@ -5178,10 +5549,13 @@
         <v>229</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="234" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D233">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="234" ht="21" spans="1:4">
       <c r="A234" s="6" t="s">
         <v>209</v>
       </c>
@@ -5189,10 +5563,13 @@
         <v>230</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="235" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D234">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="235" ht="21" spans="1:4">
       <c r="A235" s="6" t="s">
         <v>209</v>
       </c>
@@ -5200,7 +5577,10 @@
         <v>231</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="D235">
+        <v>22</v>
       </c>
     </row>
     <row r="236" ht="21" spans="2:3">
@@ -5211,7 +5591,7 @@
       <c r="B237" s="11"/>
       <c r="C237" s="10"/>
     </row>
-    <row r="238" ht="21" spans="1:3">
+    <row r="238" ht="21" spans="1:4">
       <c r="A238" s="6" t="s">
         <v>232</v>
       </c>
@@ -5219,10 +5599,13 @@
         <v>233</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="239" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" ht="21" spans="1:4">
       <c r="A239" s="6" t="s">
         <v>232</v>
       </c>
@@ -5230,10 +5613,13 @@
         <v>234</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="240" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" ht="21" spans="1:4">
       <c r="A240" s="6" t="s">
         <v>232</v>
       </c>
@@ -5241,10 +5627,13 @@
         <v>235</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="241" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" ht="21" spans="1:4">
       <c r="A241" s="6" t="s">
         <v>232</v>
       </c>
@@ -5252,10 +5641,13 @@
         <v>236</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="242" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D241">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" ht="21" spans="1:4">
       <c r="A242" s="6" t="s">
         <v>232</v>
       </c>
@@ -5263,10 +5655,13 @@
         <v>237</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="243" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D242">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" ht="21" spans="1:4">
       <c r="A243" s="6" t="s">
         <v>232</v>
       </c>
@@ -5274,10 +5669,13 @@
         <v>238</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="244" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D243">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" ht="21" spans="1:4">
       <c r="A244" s="6" t="s">
         <v>232</v>
       </c>
@@ -5285,10 +5683,13 @@
         <v>239</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="245" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D244">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" ht="21" spans="1:4">
       <c r="A245" s="6" t="s">
         <v>232</v>
       </c>
@@ -5296,10 +5697,13 @@
         <v>240</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="246" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D245">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="246" ht="21" spans="1:4">
       <c r="A246" s="6" t="s">
         <v>232</v>
       </c>
@@ -5307,10 +5711,13 @@
         <v>241</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="247" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D246">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="247" ht="21" spans="1:4">
       <c r="A247" s="6" t="s">
         <v>232</v>
       </c>
@@ -5318,10 +5725,13 @@
         <v>242</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="248" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D247">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" ht="21" spans="1:4">
       <c r="A248" s="6" t="s">
         <v>232</v>
       </c>
@@ -5329,10 +5739,13 @@
         <v>243</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="249" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D248">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249" ht="21" spans="1:4">
       <c r="A249" s="6" t="s">
         <v>232</v>
       </c>
@@ -5340,10 +5753,13 @@
         <v>244</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="250" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D249">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="250" ht="21" spans="1:4">
       <c r="A250" s="6" t="s">
         <v>232</v>
       </c>
@@ -5351,10 +5767,13 @@
         <v>245</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="251" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D250">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" ht="21" spans="1:4">
       <c r="A251" s="6" t="s">
         <v>232</v>
       </c>
@@ -5362,10 +5781,13 @@
         <v>246</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="252" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D251">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="252" ht="21" spans="1:4">
       <c r="A252" s="6" t="s">
         <v>232</v>
       </c>
@@ -5373,10 +5795,13 @@
         <v>247</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="253" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D252">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="253" ht="21" spans="1:4">
       <c r="A253" s="6" t="s">
         <v>232</v>
       </c>
@@ -5384,10 +5809,13 @@
         <v>248</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="254" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D253">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254" ht="21" spans="1:4">
       <c r="A254" s="6" t="s">
         <v>232</v>
       </c>
@@ -5395,10 +5823,13 @@
         <v>249</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="255" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D254">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="255" ht="21" spans="1:4">
       <c r="A255" s="6" t="s">
         <v>232</v>
       </c>
@@ -5406,10 +5837,13 @@
         <v>250</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="256" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D255">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="256" ht="21" spans="1:4">
       <c r="A256" s="6" t="s">
         <v>232</v>
       </c>
@@ -5417,10 +5851,13 @@
         <v>251</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="257" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D256">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="257" ht="21" spans="1:4">
       <c r="A257" s="6" t="s">
         <v>232</v>
       </c>
@@ -5428,10 +5865,13 @@
         <v>252</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="258" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D257">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="258" ht="21" spans="1:4">
       <c r="A258" s="6" t="s">
         <v>232</v>
       </c>
@@ -5439,10 +5879,13 @@
         <v>253</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="259" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D258">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="259" ht="21" spans="1:4">
       <c r="A259" s="6" t="s">
         <v>232</v>
       </c>
@@ -5450,10 +5893,13 @@
         <v>254</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="260" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D259">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="260" ht="21" spans="1:4">
       <c r="A260" s="6" t="s">
         <v>232</v>
       </c>
@@ -5461,10 +5907,13 @@
         <v>255</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="261" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D260">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="261" ht="21" spans="1:4">
       <c r="A261" s="6" t="s">
         <v>232</v>
       </c>
@@ -5472,10 +5921,13 @@
         <v>256</v>
       </c>
       <c r="C261" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D261">
         <v>24</v>
       </c>
     </row>
-    <row r="262" ht="21" spans="1:3">
+    <row r="262" ht="21" spans="1:4">
       <c r="A262" s="6" t="s">
         <v>232</v>
       </c>
@@ -5483,10 +5935,13 @@
         <v>257</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="263" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D262">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="263" ht="21" spans="1:4">
       <c r="A263" s="6" t="s">
         <v>232</v>
       </c>
@@ -5494,10 +5949,13 @@
         <v>258</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="264" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D263">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="264" ht="21" spans="1:4">
       <c r="A264" s="6" t="s">
         <v>232</v>
       </c>
@@ -5505,10 +5963,13 @@
         <v>259</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="265" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D264">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="265" ht="21" spans="1:4">
       <c r="A265" s="6" t="s">
         <v>232</v>
       </c>
@@ -5516,10 +5977,13 @@
         <v>260</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="266" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D265">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="266" ht="21" spans="1:4">
       <c r="A266" s="6" t="s">
         <v>232</v>
       </c>
@@ -5527,10 +5991,13 @@
         <v>261</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="267" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D266">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="267" ht="21" spans="1:4">
       <c r="A267" s="6" t="s">
         <v>232</v>
       </c>
@@ -5538,10 +6005,13 @@
         <v>262</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="268" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D267">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="268" ht="21" spans="1:4">
       <c r="A268" s="6" t="s">
         <v>232</v>
       </c>
@@ -5549,10 +6019,13 @@
         <v>263</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="269" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D268">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="269" ht="21" spans="1:4">
       <c r="A269" s="6" t="s">
         <v>232</v>
       </c>
@@ -5560,10 +6033,13 @@
         <v>264</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="270" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D269">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="270" ht="21" spans="1:4">
       <c r="A270" s="6" t="s">
         <v>232</v>
       </c>
@@ -5571,10 +6047,13 @@
         <v>265</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="271" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D270">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="271" ht="21" spans="1:4">
       <c r="A271" s="6" t="s">
         <v>232</v>
       </c>
@@ -5582,10 +6061,13 @@
         <v>89</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="272" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D271">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="272" ht="21" spans="1:4">
       <c r="A272" s="6" t="s">
         <v>232</v>
       </c>
@@ -5593,7 +6075,10 @@
         <v>266</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="D272">
+        <v>35</v>
       </c>
     </row>
     <row r="273" ht="21" spans="2:3">
@@ -5604,7 +6089,7 @@
       <c r="B274" s="11"/>
       <c r="C274" s="10"/>
     </row>
-    <row r="275" ht="21" spans="1:3">
+    <row r="275" ht="21" spans="1:4">
       <c r="A275" s="6" t="s">
         <v>267</v>
       </c>
@@ -5612,10 +6097,13 @@
         <v>268</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="276" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" ht="21" spans="1:4">
       <c r="A276" s="6" t="s">
         <v>267</v>
       </c>
@@ -5623,10 +6111,13 @@
         <v>269</v>
       </c>
       <c r="C276" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="277" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" ht="21" spans="1:4">
       <c r="A277" s="6" t="s">
         <v>267</v>
       </c>
@@ -5634,10 +6125,13 @@
         <v>270</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="278" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" ht="21" spans="1:4">
       <c r="A278" s="6" t="s">
         <v>267</v>
       </c>
@@ -5645,10 +6139,13 @@
         <v>271</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="279" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D278">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" ht="21" spans="1:4">
       <c r="A279" s="6" t="s">
         <v>267</v>
       </c>
@@ -5656,10 +6153,13 @@
         <v>272</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="280" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D279">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" ht="21" spans="1:4">
       <c r="A280" s="6" t="s">
         <v>267</v>
       </c>
@@ -5667,10 +6167,13 @@
         <v>273</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="281" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D280">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" ht="21" spans="1:4">
       <c r="A281" s="6" t="s">
         <v>267</v>
       </c>
@@ -5678,10 +6181,13 @@
         <v>274</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="282" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D281">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" ht="21" spans="1:4">
       <c r="A282" s="6" t="s">
         <v>267</v>
       </c>
@@ -5689,10 +6195,13 @@
         <v>275</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="283" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D282">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" ht="21" spans="1:4">
       <c r="A283" s="6" t="s">
         <v>267</v>
       </c>
@@ -5700,10 +6209,13 @@
         <v>276</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="284" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D283">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284" ht="21" spans="1:4">
       <c r="A284" s="6" t="s">
         <v>267</v>
       </c>
@@ -5711,10 +6223,13 @@
         <v>277</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="285" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D284">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" ht="21" spans="1:4">
       <c r="A285" s="6" t="s">
         <v>267</v>
       </c>
@@ -5722,10 +6237,13 @@
         <v>278</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="286" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D285">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="286" ht="21" spans="1:4">
       <c r="A286" s="6" t="s">
         <v>267</v>
       </c>
@@ -5733,10 +6251,13 @@
         <v>279</v>
       </c>
       <c r="C286" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="287" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D286">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="287" ht="21" spans="1:4">
       <c r="A287" s="6" t="s">
         <v>267</v>
       </c>
@@ -5744,10 +6265,13 @@
         <v>280</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="288" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D287">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="288" ht="21" spans="1:4">
       <c r="A288" s="6" t="s">
         <v>267</v>
       </c>
@@ -5755,10 +6279,13 @@
         <v>281</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="289" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D288">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="289" ht="21" spans="1:4">
       <c r="A289" s="6" t="s">
         <v>267</v>
       </c>
@@ -5766,10 +6293,13 @@
         <v>282</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="290" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D289">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="290" ht="21" spans="1:4">
       <c r="A290" s="6" t="s">
         <v>267</v>
       </c>
@@ -5777,10 +6307,13 @@
         <v>283</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="291" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D290">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="291" ht="21" spans="1:4">
       <c r="A291" s="6" t="s">
         <v>267</v>
       </c>
@@ -5788,10 +6321,13 @@
         <v>284</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="292" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D291">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="292" ht="21" spans="1:4">
       <c r="A292" s="6" t="s">
         <v>267</v>
       </c>
@@ -5799,10 +6335,13 @@
         <v>285</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="293" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D292">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="293" ht="21" spans="1:4">
       <c r="A293" s="6" t="s">
         <v>267</v>
       </c>
@@ -5810,7 +6349,10 @@
         <v>286</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="D293">
+        <v>19</v>
       </c>
     </row>
     <row r="294" ht="21" spans="2:3">
@@ -5821,7 +6363,7 @@
       <c r="B295" s="11"/>
       <c r="C295" s="10"/>
     </row>
-    <row r="296" ht="21" spans="1:3">
+    <row r="296" ht="21" spans="1:4">
       <c r="A296" s="6" t="s">
         <v>287</v>
       </c>
@@ -5829,10 +6371,13 @@
         <v>288</v>
       </c>
       <c r="C296" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="297" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" ht="21" spans="1:4">
       <c r="A297" s="6" t="s">
         <v>287</v>
       </c>
@@ -5840,10 +6385,13 @@
         <v>289</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="298" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" ht="21" spans="1:4">
       <c r="A298" s="6" t="s">
         <v>287</v>
       </c>
@@ -5851,10 +6399,13 @@
         <v>290</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="299" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D298">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" ht="21" spans="1:4">
       <c r="A299" s="6" t="s">
         <v>287</v>
       </c>
@@ -5862,10 +6413,13 @@
         <v>291</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="300" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D299">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" ht="21" spans="1:4">
       <c r="A300" s="6" t="s">
         <v>287</v>
       </c>
@@ -5873,10 +6427,13 @@
         <v>292</v>
       </c>
       <c r="C300" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="301" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D300">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" ht="21" spans="1:4">
       <c r="A301" s="6" t="s">
         <v>287</v>
       </c>
@@ -5884,10 +6441,13 @@
         <v>293</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="302" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D301">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="302" ht="21" spans="1:4">
       <c r="A302" s="6" t="s">
         <v>287</v>
       </c>
@@ -5895,10 +6455,13 @@
         <v>294</v>
       </c>
       <c r="C302" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="303" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D302">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" ht="21" spans="1:4">
       <c r="A303" s="6" t="s">
         <v>287</v>
       </c>
@@ -5906,10 +6469,13 @@
         <v>295</v>
       </c>
       <c r="C303" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="304" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D303">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" ht="21" spans="1:4">
       <c r="A304" s="6" t="s">
         <v>287</v>
       </c>
@@ -5917,10 +6483,13 @@
         <v>296</v>
       </c>
       <c r="C304" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="305" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D304">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305" ht="21" spans="1:4">
       <c r="A305" s="6" t="s">
         <v>287</v>
       </c>
@@ -5928,10 +6497,13 @@
         <v>297</v>
       </c>
       <c r="C305" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="306" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D305">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306" ht="21" spans="1:4">
       <c r="A306" s="6" t="s">
         <v>287</v>
       </c>
@@ -5939,10 +6511,13 @@
         <v>298</v>
       </c>
       <c r="C306" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="307" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D306">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="307" ht="21" spans="1:4">
       <c r="A307" s="6" t="s">
         <v>287</v>
       </c>
@@ -5950,10 +6525,13 @@
         <v>299</v>
       </c>
       <c r="C307" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="308" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D307">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="308" ht="21" spans="1:4">
       <c r="A308" s="6" t="s">
         <v>287</v>
       </c>
@@ -5961,10 +6539,13 @@
         <v>300</v>
       </c>
       <c r="C308" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="309" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D308">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="309" ht="21" spans="1:4">
       <c r="A309" s="6" t="s">
         <v>287</v>
       </c>
@@ -5972,10 +6553,13 @@
         <v>301</v>
       </c>
       <c r="C309" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="310" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D309">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="310" ht="21" spans="1:4">
       <c r="A310" s="6" t="s">
         <v>287</v>
       </c>
@@ -5983,10 +6567,13 @@
         <v>302</v>
       </c>
       <c r="C310" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="311" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D310">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="311" ht="21" spans="1:4">
       <c r="A311" s="6" t="s">
         <v>287</v>
       </c>
@@ -5994,10 +6581,13 @@
         <v>303</v>
       </c>
       <c r="C311" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="312" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D311">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="312" ht="21" spans="1:4">
       <c r="A312" s="6" t="s">
         <v>287</v>
       </c>
@@ -6005,10 +6595,13 @@
         <v>304</v>
       </c>
       <c r="C312" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="313" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D312">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="313" ht="21" spans="1:4">
       <c r="A313" s="6" t="s">
         <v>287</v>
       </c>
@@ -6016,10 +6609,13 @@
         <v>305</v>
       </c>
       <c r="C313" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="314" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D313">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="314" ht="21" spans="1:4">
       <c r="A314" s="6" t="s">
         <v>287</v>
       </c>
@@ -6027,10 +6623,13 @@
         <v>306</v>
       </c>
       <c r="C314" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="315" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D314">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="315" ht="21" spans="1:4">
       <c r="A315" s="6" t="s">
         <v>287</v>
       </c>
@@ -6038,10 +6637,13 @@
         <v>307</v>
       </c>
       <c r="C315" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="316" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D315">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="316" ht="21" spans="1:4">
       <c r="A316" s="6" t="s">
         <v>287</v>
       </c>
@@ -6049,10 +6651,13 @@
         <v>308</v>
       </c>
       <c r="C316" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="317" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D316">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="317" ht="21" spans="1:4">
       <c r="A317" s="6" t="s">
         <v>287</v>
       </c>
@@ -6060,10 +6665,13 @@
         <v>309</v>
       </c>
       <c r="C317" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="318" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D317">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="318" ht="21" spans="1:4">
       <c r="A318" s="6" t="s">
         <v>287</v>
       </c>
@@ -6071,10 +6679,13 @@
         <v>310</v>
       </c>
       <c r="C318" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="319" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D318">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="319" ht="21" spans="1:4">
       <c r="A319" s="6" t="s">
         <v>287</v>
       </c>
@@ -6082,10 +6693,13 @@
         <v>311</v>
       </c>
       <c r="C319" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D319">
         <v>24</v>
       </c>
     </row>
-    <row r="320" ht="21" spans="1:3">
+    <row r="320" ht="21" spans="1:4">
       <c r="A320" s="6" t="s">
         <v>287</v>
       </c>
@@ -6093,10 +6707,13 @@
         <v>312</v>
       </c>
       <c r="C320" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="321" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D320">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="321" ht="21" spans="1:4">
       <c r="A321" s="6" t="s">
         <v>287</v>
       </c>
@@ -6104,10 +6721,13 @@
         <v>313</v>
       </c>
       <c r="C321" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="322" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D321">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="322" ht="21" spans="1:4">
       <c r="A322" s="6" t="s">
         <v>287</v>
       </c>
@@ -6115,10 +6735,13 @@
         <v>314</v>
       </c>
       <c r="C322" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="323" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D322">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="323" ht="21" spans="1:4">
       <c r="A323" s="6" t="s">
         <v>287</v>
       </c>
@@ -6126,10 +6749,13 @@
         <v>315</v>
       </c>
       <c r="C323" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="324" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D323">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="324" ht="21" spans="1:4">
       <c r="A324" s="6" t="s">
         <v>287</v>
       </c>
@@ -6137,10 +6763,13 @@
         <v>316</v>
       </c>
       <c r="C324" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="325" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D324">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="325" ht="21" spans="1:4">
       <c r="A325" s="6" t="s">
         <v>287</v>
       </c>
@@ -6148,10 +6777,13 @@
         <v>317</v>
       </c>
       <c r="C325" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="326" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D325">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="326" ht="21" spans="1:4">
       <c r="A326" s="6" t="s">
         <v>287</v>
       </c>
@@ -6159,10 +6791,13 @@
         <v>318</v>
       </c>
       <c r="C326" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="327" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D326">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="327" ht="21" spans="1:4">
       <c r="A327" s="6" t="s">
         <v>287</v>
       </c>
@@ -6170,10 +6805,13 @@
         <v>319</v>
       </c>
       <c r="C327" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="328" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D327">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="328" ht="21" spans="1:4">
       <c r="A328" s="6" t="s">
         <v>287</v>
       </c>
@@ -6181,10 +6819,13 @@
         <v>320</v>
       </c>
       <c r="C328" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="329" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D328">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="329" ht="21" spans="1:4">
       <c r="A329" s="6" t="s">
         <v>287</v>
       </c>
@@ -6192,10 +6833,13 @@
         <v>321</v>
       </c>
       <c r="C329" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="330" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D329">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="330" ht="21" spans="1:4">
       <c r="A330" s="6" t="s">
         <v>287</v>
       </c>
@@ -6203,10 +6847,13 @@
         <v>322</v>
       </c>
       <c r="C330" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="331" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D330">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="331" ht="21" spans="1:4">
       <c r="A331" s="6" t="s">
         <v>287</v>
       </c>
@@ -6214,10 +6861,13 @@
         <v>323</v>
       </c>
       <c r="C331" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="332" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D331">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="332" ht="21" spans="1:4">
       <c r="A332" s="6" t="s">
         <v>287</v>
       </c>
@@ -6225,10 +6875,13 @@
         <v>324</v>
       </c>
       <c r="C332" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="333" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D332">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="333" ht="21" spans="1:4">
       <c r="A333" s="6" t="s">
         <v>287</v>
       </c>
@@ -6236,7 +6889,10 @@
         <v>325</v>
       </c>
       <c r="C333" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="D333">
+        <v>38</v>
       </c>
     </row>
     <row r="334" ht="21" spans="2:3">
@@ -6247,7 +6903,7 @@
       <c r="B335" s="11"/>
       <c r="C335" s="10"/>
     </row>
-    <row r="336" ht="21" spans="1:3">
+    <row r="336" ht="21" spans="1:4">
       <c r="A336" s="12" t="s">
         <v>326</v>
       </c>
@@ -6255,10 +6911,13 @@
         <v>327</v>
       </c>
       <c r="C336" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="337" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" ht="21" spans="1:4">
       <c r="A337" s="12" t="s">
         <v>326</v>
       </c>
@@ -6266,10 +6925,13 @@
         <v>328</v>
       </c>
       <c r="C337" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="338" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" ht="21" spans="1:4">
       <c r="A338" s="12" t="s">
         <v>326</v>
       </c>
@@ -6277,10 +6939,13 @@
         <v>329</v>
       </c>
       <c r="C338" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="339" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D338">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" ht="21" spans="1:4">
       <c r="A339" s="12" t="s">
         <v>326</v>
       </c>
@@ -6288,10 +6953,13 @@
         <v>330</v>
       </c>
       <c r="C339" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="340" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D339">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" ht="21" spans="1:4">
       <c r="A340" s="12" t="s">
         <v>326</v>
       </c>
@@ -6299,10 +6967,13 @@
         <v>331</v>
       </c>
       <c r="C340" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="341" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D340">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" ht="21" spans="1:4">
       <c r="A341" s="12" t="s">
         <v>326</v>
       </c>
@@ -6310,10 +6981,13 @@
         <v>332</v>
       </c>
       <c r="C341" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="342" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D341">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="342" ht="21" spans="1:4">
       <c r="A342" s="12" t="s">
         <v>326</v>
       </c>
@@ -6321,10 +6995,13 @@
         <v>333</v>
       </c>
       <c r="C342" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="343" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D342">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" ht="21" spans="1:4">
       <c r="A343" s="12" t="s">
         <v>326</v>
       </c>
@@ -6332,10 +7009,13 @@
         <v>334</v>
       </c>
       <c r="C343" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="344" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D343">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344" ht="21" spans="1:4">
       <c r="A344" s="12" t="s">
         <v>326</v>
       </c>
@@ -6343,10 +7023,13 @@
         <v>335</v>
       </c>
       <c r="C344" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="345" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D344">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" ht="21" spans="1:4">
       <c r="A345" s="12" t="s">
         <v>326</v>
       </c>
@@ -6354,10 +7037,13 @@
         <v>336</v>
       </c>
       <c r="C345" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="346" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D345">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="346" ht="21" spans="1:4">
       <c r="A346" s="12" t="s">
         <v>326</v>
       </c>
@@ -6365,10 +7051,13 @@
         <v>337</v>
       </c>
       <c r="C346" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="347" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D346">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="347" ht="21" spans="1:4">
       <c r="A347" s="12" t="s">
         <v>326</v>
       </c>
@@ -6376,10 +7065,13 @@
         <v>338</v>
       </c>
       <c r="C347" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="348" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D347">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="348" ht="21" spans="1:4">
       <c r="A348" s="12" t="s">
         <v>326</v>
       </c>
@@ -6387,10 +7079,13 @@
         <v>339</v>
       </c>
       <c r="C348" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="349" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D348">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="349" ht="21" spans="1:4">
       <c r="A349" s="12" t="s">
         <v>326</v>
       </c>
@@ -6398,10 +7093,13 @@
         <v>340</v>
       </c>
       <c r="C349" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="350" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D349">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="350" ht="21" spans="1:4">
       <c r="A350" s="12" t="s">
         <v>326</v>
       </c>
@@ -6409,10 +7107,13 @@
         <v>341</v>
       </c>
       <c r="C350" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="351" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D350">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="351" ht="21" spans="1:4">
       <c r="A351" s="12" t="s">
         <v>326</v>
       </c>
@@ -6420,10 +7121,13 @@
         <v>342</v>
       </c>
       <c r="C351" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="352" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D351">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="352" ht="21" spans="1:4">
       <c r="A352" s="12" t="s">
         <v>326</v>
       </c>
@@ -6431,10 +7135,13 @@
         <v>343</v>
       </c>
       <c r="C352" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="353" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D352">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="353" ht="21" spans="1:4">
       <c r="A353" s="12" t="s">
         <v>326</v>
       </c>
@@ -6442,7 +7149,10 @@
         <v>344</v>
       </c>
       <c r="C353" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="D353">
+        <v>18</v>
       </c>
     </row>
     <row r="354" ht="21" spans="2:3">
@@ -6453,7 +7163,7 @@
       <c r="B355" s="11"/>
       <c r="C355" s="10"/>
     </row>
-    <row r="356" ht="21" spans="1:3">
+    <row r="356" ht="21" spans="1:4">
       <c r="A356" s="12" t="s">
         <v>345</v>
       </c>
@@ -6461,10 +7171,13 @@
         <v>346</v>
       </c>
       <c r="C356" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="357" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" ht="21" spans="1:4">
       <c r="A357" s="12" t="s">
         <v>345</v>
       </c>
@@ -6472,10 +7185,13 @@
         <v>347</v>
       </c>
       <c r="C357" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="358" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" ht="21" spans="1:4">
       <c r="A358" s="12" t="s">
         <v>345</v>
       </c>
@@ -6483,10 +7199,13 @@
         <v>348</v>
       </c>
       <c r="C358" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="359" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D358">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" ht="21" spans="1:4">
       <c r="A359" s="12" t="s">
         <v>345</v>
       </c>
@@ -6494,10 +7213,13 @@
         <v>349</v>
       </c>
       <c r="C359" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="360" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D359">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" ht="21" spans="1:4">
       <c r="A360" s="12" t="s">
         <v>345</v>
       </c>
@@ -6505,10 +7227,13 @@
         <v>350</v>
       </c>
       <c r="C360" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="361" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D360">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" ht="21" spans="1:4">
       <c r="A361" s="12" t="s">
         <v>345</v>
       </c>
@@ -6516,10 +7241,13 @@
         <v>351</v>
       </c>
       <c r="C361" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="362" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D361">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="362" ht="21" spans="1:4">
       <c r="A362" s="12" t="s">
         <v>345</v>
       </c>
@@ -6527,10 +7255,13 @@
         <v>352</v>
       </c>
       <c r="C362" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="363" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D362">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="363" ht="21" spans="1:4">
       <c r="A363" s="12" t="s">
         <v>345</v>
       </c>
@@ -6538,10 +7269,13 @@
         <v>353</v>
       </c>
       <c r="C363" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="364" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D363">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="364" ht="21" spans="1:4">
       <c r="A364" s="12" t="s">
         <v>345</v>
       </c>
@@ -6549,10 +7283,13 @@
         <v>354</v>
       </c>
       <c r="C364" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="365" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D364">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="365" ht="21" spans="1:4">
       <c r="A365" s="12" t="s">
         <v>345</v>
       </c>
@@ -6560,10 +7297,13 @@
         <v>355</v>
       </c>
       <c r="C365" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="366" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D365">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="366" ht="21" spans="1:4">
       <c r="A366" s="12" t="s">
         <v>345</v>
       </c>
@@ -6571,10 +7311,13 @@
         <v>356</v>
       </c>
       <c r="C366" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="367" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D366">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="367" ht="21" spans="1:4">
       <c r="A367" s="12" t="s">
         <v>345</v>
       </c>
@@ -6582,10 +7325,13 @@
         <v>357</v>
       </c>
       <c r="C367" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="368" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D367">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="368" ht="21" spans="1:4">
       <c r="A368" s="12" t="s">
         <v>345</v>
       </c>
@@ -6593,10 +7339,13 @@
         <v>358</v>
       </c>
       <c r="C368" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="369" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D368">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="369" ht="21" spans="1:4">
       <c r="A369" s="12" t="s">
         <v>345</v>
       </c>
@@ -6604,10 +7353,13 @@
         <v>359</v>
       </c>
       <c r="C369" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="370" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D369">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="370" ht="21" spans="1:4">
       <c r="A370" s="12" t="s">
         <v>345</v>
       </c>
@@ -6615,10 +7367,13 @@
         <v>360</v>
       </c>
       <c r="C370" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="371" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D370">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="371" ht="21" spans="1:4">
       <c r="A371" s="12" t="s">
         <v>345</v>
       </c>
@@ -6626,10 +7381,13 @@
         <v>361</v>
       </c>
       <c r="C371" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="372" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D371">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="372" ht="21" spans="1:4">
       <c r="A372" s="12" t="s">
         <v>345</v>
       </c>
@@ -6637,10 +7395,13 @@
         <v>362</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="373" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D372">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="373" ht="21" spans="1:4">
       <c r="A373" s="12" t="s">
         <v>345</v>
       </c>
@@ -6648,10 +7409,13 @@
         <v>363</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="374" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D373">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="374" ht="21" spans="1:4">
       <c r="A374" s="12" t="s">
         <v>345</v>
       </c>
@@ -6659,10 +7423,13 @@
         <v>364</v>
       </c>
       <c r="C374" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="375" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D374">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="375" ht="21" spans="1:4">
       <c r="A375" s="12" t="s">
         <v>345</v>
       </c>
@@ -6670,10 +7437,13 @@
         <v>365</v>
       </c>
       <c r="C375" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="376" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D375">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="376" ht="21" spans="1:4">
       <c r="A376" s="12" t="s">
         <v>345</v>
       </c>
@@ -6681,10 +7451,13 @@
         <v>366</v>
       </c>
       <c r="C376" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="377" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D376">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="377" ht="21" spans="1:4">
       <c r="A377" s="12" t="s">
         <v>345</v>
       </c>
@@ -6692,10 +7465,13 @@
         <v>367</v>
       </c>
       <c r="C377" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="378" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D377">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="378" ht="21" spans="1:4">
       <c r="A378" s="12" t="s">
         <v>345</v>
       </c>
@@ -6703,10 +7479,13 @@
         <v>368</v>
       </c>
       <c r="C378" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="379" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D378">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="379" ht="21" spans="1:4">
       <c r="A379" s="12" t="s">
         <v>345</v>
       </c>
@@ -6714,10 +7493,13 @@
         <v>369</v>
       </c>
       <c r="C379" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D379">
         <v>24</v>
       </c>
     </row>
-    <row r="380" ht="21" spans="1:3">
+    <row r="380" ht="21" spans="1:4">
       <c r="A380" s="12" t="s">
         <v>345</v>
       </c>
@@ -6725,10 +7507,13 @@
         <v>370</v>
       </c>
       <c r="C380" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="381" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D380">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="381" ht="21" spans="1:4">
       <c r="A381" s="12" t="s">
         <v>345</v>
       </c>
@@ -6736,10 +7521,13 @@
         <v>371</v>
       </c>
       <c r="C381" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="382" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D381">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="382" ht="21" spans="1:4">
       <c r="A382" s="12" t="s">
         <v>345</v>
       </c>
@@ -6747,10 +7535,13 @@
         <v>372</v>
       </c>
       <c r="C382" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="383" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D382">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="383" ht="21" spans="1:4">
       <c r="A383" s="12" t="s">
         <v>345</v>
       </c>
@@ -6758,10 +7549,13 @@
         <v>373</v>
       </c>
       <c r="C383" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="384" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D383">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="384" ht="21" spans="1:4">
       <c r="A384" s="12" t="s">
         <v>345</v>
       </c>
@@ -6769,10 +7563,13 @@
         <v>374</v>
       </c>
       <c r="C384" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="385" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D384">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="385" ht="21" spans="1:4">
       <c r="A385" s="12" t="s">
         <v>345</v>
       </c>
@@ -6780,10 +7577,13 @@
         <v>375</v>
       </c>
       <c r="C385" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="386" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D385">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="386" ht="21" spans="1:4">
       <c r="A386" s="12" t="s">
         <v>345</v>
       </c>
@@ -6791,10 +7591,13 @@
         <v>376</v>
       </c>
       <c r="C386" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="387" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D386">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="387" ht="21" spans="1:4">
       <c r="A387" s="12" t="s">
         <v>345</v>
       </c>
@@ -6802,10 +7605,13 @@
         <v>377</v>
       </c>
       <c r="C387" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="388" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D387">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="388" ht="21" spans="1:4">
       <c r="A388" s="12" t="s">
         <v>345</v>
       </c>
@@ -6813,10 +7619,13 @@
         <v>378</v>
       </c>
       <c r="C388" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="389" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D388">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="389" ht="21" spans="1:4">
       <c r="A389" s="12" t="s">
         <v>345</v>
       </c>
@@ -6824,10 +7633,13 @@
         <v>379</v>
       </c>
       <c r="C389" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="390" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D389">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="390" ht="21" spans="1:4">
       <c r="A390" s="12" t="s">
         <v>345</v>
       </c>
@@ -6835,10 +7647,13 @@
         <v>379</v>
       </c>
       <c r="C390" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="391" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D390">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="391" ht="21" spans="1:4">
       <c r="A391" s="12" t="s">
         <v>345</v>
       </c>
@@ -6846,10 +7661,13 @@
         <v>380</v>
       </c>
       <c r="C391" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="392" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D391">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="392" ht="21" spans="1:4">
       <c r="A392" s="12" t="s">
         <v>345</v>
       </c>
@@ -6857,10 +7675,13 @@
         <v>381</v>
       </c>
       <c r="C392" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="393" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D392">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="393" ht="21" spans="1:4">
       <c r="A393" s="12" t="s">
         <v>345</v>
       </c>
@@ -6868,10 +7689,13 @@
         <v>382</v>
       </c>
       <c r="C393" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="394" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D393">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="394" ht="21" spans="1:4">
       <c r="A394" s="12" t="s">
         <v>345</v>
       </c>
@@ -6879,10 +7703,13 @@
         <v>383</v>
       </c>
       <c r="C394" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="395" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D394">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="395" ht="21" spans="1:4">
       <c r="A395" s="12" t="s">
         <v>345</v>
       </c>
@@ -6890,10 +7717,13 @@
         <v>384</v>
       </c>
       <c r="C395" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="396" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D395">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="396" ht="21" spans="1:4">
       <c r="A396" s="12" t="s">
         <v>345</v>
       </c>
@@ -6901,10 +7731,13 @@
         <v>385</v>
       </c>
       <c r="C396" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="397" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D396">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="397" ht="21" spans="1:4">
       <c r="A397" s="12" t="s">
         <v>345</v>
       </c>
@@ -6912,10 +7745,13 @@
         <v>386</v>
       </c>
       <c r="C397" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="398" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D397">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="398" ht="21" spans="1:4">
       <c r="A398" s="12" t="s">
         <v>345</v>
       </c>
@@ -6923,10 +7759,13 @@
         <v>387</v>
       </c>
       <c r="C398" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="399" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D398">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="399" ht="21" spans="1:4">
       <c r="A399" s="12" t="s">
         <v>345</v>
       </c>
@@ -6934,7 +7773,10 @@
         <v>388</v>
       </c>
       <c r="C399" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="D399">
+        <v>44</v>
       </c>
     </row>
     <row r="400" ht="21" spans="2:3">
@@ -6945,7 +7787,7 @@
       <c r="B401" s="11"/>
       <c r="C401" s="10"/>
     </row>
-    <row r="402" ht="21" spans="1:3">
+    <row r="402" ht="21" spans="1:4">
       <c r="A402" s="12" t="s">
         <v>389</v>
       </c>
@@ -6953,10 +7795,13 @@
         <v>390</v>
       </c>
       <c r="C402" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="403" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" ht="21" spans="1:4">
       <c r="A403" s="12" t="s">
         <v>389</v>
       </c>
@@ -6964,10 +7809,13 @@
         <v>391</v>
       </c>
       <c r="C403" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="404" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" ht="21" spans="1:4">
       <c r="A404" s="12" t="s">
         <v>389</v>
       </c>
@@ -6975,10 +7823,13 @@
         <v>392</v>
       </c>
       <c r="C404" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="405" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D404">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405" ht="21" spans="1:4">
       <c r="A405" s="12" t="s">
         <v>389</v>
       </c>
@@ -6986,10 +7837,13 @@
         <v>91</v>
       </c>
       <c r="C405" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="406" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D405">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="406" ht="21" spans="1:4">
       <c r="A406" s="12" t="s">
         <v>389</v>
       </c>
@@ -6997,10 +7851,13 @@
         <v>393</v>
       </c>
       <c r="C406" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="407" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D406">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="407" ht="21" spans="1:4">
       <c r="A407" s="12" t="s">
         <v>389</v>
       </c>
@@ -7008,7 +7865,10 @@
         <v>394</v>
       </c>
       <c r="C407" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="D407">
+        <v>6</v>
       </c>
     </row>
     <row r="408" ht="21" spans="2:3">
@@ -7019,7 +7879,7 @@
       <c r="B409" s="11"/>
       <c r="C409" s="10"/>
     </row>
-    <row r="410" ht="21" spans="1:3">
+    <row r="410" ht="21" spans="1:4">
       <c r="A410" s="6" t="s">
         <v>395</v>
       </c>
@@ -7027,10 +7887,13 @@
         <v>396</v>
       </c>
       <c r="C410" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="411" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" ht="21" spans="1:4">
       <c r="A411" s="6" t="s">
         <v>395</v>
       </c>
@@ -7038,10 +7901,13 @@
         <v>397</v>
       </c>
       <c r="C411" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="412" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D411">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" ht="21" spans="1:4">
       <c r="A412" s="6" t="s">
         <v>395</v>
       </c>
@@ -7049,10 +7915,13 @@
         <v>398</v>
       </c>
       <c r="C412" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="413" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D412">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" ht="21" spans="1:4">
       <c r="A413" s="6" t="s">
         <v>395</v>
       </c>
@@ -7060,10 +7929,13 @@
         <v>399</v>
       </c>
       <c r="C413" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="414" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D413">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" ht="21" spans="1:4">
       <c r="A414" s="6" t="s">
         <v>395</v>
       </c>
@@ -7071,10 +7943,13 @@
         <v>400</v>
       </c>
       <c r="C414" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="415" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D414">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415" ht="21" spans="1:4">
       <c r="A415" s="6" t="s">
         <v>395</v>
       </c>
@@ -7082,10 +7957,13 @@
         <v>401</v>
       </c>
       <c r="C415" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="416" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D415">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="416" ht="21" spans="1:4">
       <c r="A416" s="6" t="s">
         <v>395</v>
       </c>
@@ -7093,10 +7971,13 @@
         <v>402</v>
       </c>
       <c r="C416" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="417" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D416">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="417" ht="21" spans="1:4">
       <c r="A417" s="6" t="s">
         <v>395</v>
       </c>
@@ -7104,10 +7985,13 @@
         <v>275</v>
       </c>
       <c r="C417" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="418" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D417">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="418" ht="21" spans="1:4">
       <c r="A418" s="6" t="s">
         <v>395</v>
       </c>
@@ -7115,10 +7999,13 @@
         <v>403</v>
       </c>
       <c r="C418" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="419" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D418">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="419" ht="21" spans="1:4">
       <c r="A419" s="6" t="s">
         <v>395</v>
       </c>
@@ -7126,10 +8013,13 @@
         <v>404</v>
       </c>
       <c r="C419" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="420" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D419">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="420" ht="21" spans="1:4">
       <c r="A420" s="6" t="s">
         <v>395</v>
       </c>
@@ -7137,10 +8027,13 @@
         <v>405</v>
       </c>
       <c r="C420" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="421" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D420">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="421" ht="21" spans="1:4">
       <c r="A421" s="6" t="s">
         <v>395</v>
       </c>
@@ -7148,10 +8041,13 @@
         <v>406</v>
       </c>
       <c r="C421" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="422" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D421">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="422" ht="21" spans="1:4">
       <c r="A422" s="6" t="s">
         <v>395</v>
       </c>
@@ -7159,10 +8055,13 @@
         <v>407</v>
       </c>
       <c r="C422" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="423" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D422">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="423" ht="21" spans="1:4">
       <c r="A423" s="6" t="s">
         <v>395</v>
       </c>
@@ -7170,10 +8069,13 @@
         <v>408</v>
       </c>
       <c r="C423" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="424" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D423">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="424" ht="21" spans="1:4">
       <c r="A424" s="6" t="s">
         <v>395</v>
       </c>
@@ -7181,10 +8083,13 @@
         <v>409</v>
       </c>
       <c r="C424" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="425" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D424">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="425" ht="21" spans="1:4">
       <c r="A425" s="6" t="s">
         <v>395</v>
       </c>
@@ -7192,10 +8097,13 @@
         <v>410</v>
       </c>
       <c r="C425" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="426" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D425">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="426" ht="21" spans="1:4">
       <c r="A426" s="6" t="s">
         <v>395</v>
       </c>
@@ -7203,10 +8111,13 @@
         <v>411</v>
       </c>
       <c r="C426" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="427" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D426">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="427" ht="21" spans="1:4">
       <c r="A427" s="6" t="s">
         <v>395</v>
       </c>
@@ -7214,10 +8125,13 @@
         <v>412</v>
       </c>
       <c r="C427" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="428" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D427">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="428" ht="21" spans="1:4">
       <c r="A428" s="6" t="s">
         <v>395</v>
       </c>
@@ -7225,10 +8139,13 @@
         <v>413</v>
       </c>
       <c r="C428" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="429" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D428">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="429" ht="21" spans="1:4">
       <c r="A429" s="6" t="s">
         <v>395</v>
       </c>
@@ -7236,10 +8153,13 @@
         <v>414</v>
       </c>
       <c r="C429" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="430" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D429">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="430" ht="21" spans="1:4">
       <c r="A430" s="6" t="s">
         <v>395</v>
       </c>
@@ -7247,10 +8167,13 @@
         <v>415</v>
       </c>
       <c r="C430" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="431" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D430">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="431" ht="21" spans="1:4">
       <c r="A431" s="6" t="s">
         <v>395</v>
       </c>
@@ -7258,10 +8181,13 @@
         <v>416</v>
       </c>
       <c r="C431" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="432" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D431">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="432" ht="21" spans="1:4">
       <c r="A432" s="6" t="s">
         <v>395</v>
       </c>
@@ -7269,10 +8195,13 @@
         <v>417</v>
       </c>
       <c r="C432" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="433" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D432">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="433" ht="21" spans="1:4">
       <c r="A433" s="6" t="s">
         <v>395</v>
       </c>
@@ -7280,10 +8209,13 @@
         <v>418</v>
       </c>
       <c r="C433" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D433">
         <v>24</v>
       </c>
     </row>
-    <row r="434" ht="21" spans="1:3">
+    <row r="434" ht="21" spans="1:4">
       <c r="A434" s="6" t="s">
         <v>395</v>
       </c>
@@ -7291,10 +8223,13 @@
         <v>419</v>
       </c>
       <c r="C434" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="435" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D434">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="435" ht="21" spans="1:4">
       <c r="A435" s="6" t="s">
         <v>395</v>
       </c>
@@ -7302,10 +8237,13 @@
         <v>420</v>
       </c>
       <c r="C435" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="436" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D435">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="436" ht="21" spans="1:4">
       <c r="A436" s="6" t="s">
         <v>395</v>
       </c>
@@ -7313,10 +8251,13 @@
         <v>421</v>
       </c>
       <c r="C436" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="437" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D436">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="437" ht="21" spans="1:4">
       <c r="A437" s="6" t="s">
         <v>395</v>
       </c>
@@ -7324,10 +8265,13 @@
         <v>422</v>
       </c>
       <c r="C437" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="438" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D437">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="438" ht="21" spans="1:4">
       <c r="A438" s="6" t="s">
         <v>395</v>
       </c>
@@ -7335,10 +8279,13 @@
         <v>423</v>
       </c>
       <c r="C438" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="439" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D438">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="439" ht="21" spans="1:4">
       <c r="A439" s="6" t="s">
         <v>395</v>
       </c>
@@ -7346,10 +8293,13 @@
         <v>424</v>
       </c>
       <c r="C439" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="440" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D439">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="440" ht="21" spans="1:4">
       <c r="A440" s="6" t="s">
         <v>395</v>
       </c>
@@ -7357,10 +8307,13 @@
         <v>425</v>
       </c>
       <c r="C440" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="441" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D440">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="441" ht="21" spans="1:4">
       <c r="A441" s="6" t="s">
         <v>395</v>
       </c>
@@ -7368,10 +8321,13 @@
         <v>426</v>
       </c>
       <c r="C441" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="442" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D441">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="442" ht="21" spans="1:4">
       <c r="A442" s="6" t="s">
         <v>395</v>
       </c>
@@ -7379,10 +8335,13 @@
         <v>427</v>
       </c>
       <c r="C442" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="443" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D442">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="443" ht="21" spans="1:4">
       <c r="A443" s="6" t="s">
         <v>395</v>
       </c>
@@ -7390,10 +8349,13 @@
         <v>428</v>
       </c>
       <c r="C443" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="444" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D443">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="444" ht="21" spans="1:4">
       <c r="A444" s="6" t="s">
         <v>395</v>
       </c>
@@ -7401,10 +8363,13 @@
         <v>429</v>
       </c>
       <c r="C444" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="445" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D444">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="445" ht="21" spans="1:4">
       <c r="A445" s="6" t="s">
         <v>395</v>
       </c>
@@ -7412,10 +8377,13 @@
         <v>430</v>
       </c>
       <c r="C445" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="446" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D445">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="446" ht="21" spans="1:4">
       <c r="A446" s="6" t="s">
         <v>395</v>
       </c>
@@ -7423,10 +8391,13 @@
         <v>431</v>
       </c>
       <c r="C446" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="447" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D446">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="447" ht="21" spans="1:4">
       <c r="A447" s="6" t="s">
         <v>395</v>
       </c>
@@ -7434,10 +8405,13 @@
         <v>432</v>
       </c>
       <c r="C447" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="448" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D447">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="448" ht="21" spans="1:4">
       <c r="A448" s="6" t="s">
         <v>395</v>
       </c>
@@ -7445,10 +8419,13 @@
         <v>433</v>
       </c>
       <c r="C448" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="449" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D448">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="449" ht="21" spans="1:4">
       <c r="A449" s="6" t="s">
         <v>395</v>
       </c>
@@ -7456,10 +8433,13 @@
         <v>434</v>
       </c>
       <c r="C449" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="450" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D449">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="450" ht="21" spans="1:4">
       <c r="A450" s="6" t="s">
         <v>395</v>
       </c>
@@ -7467,10 +8447,13 @@
         <v>435</v>
       </c>
       <c r="C450" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="451" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D450">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="451" ht="21" spans="1:4">
       <c r="A451" s="6" t="s">
         <v>395</v>
       </c>
@@ -7478,10 +8461,13 @@
         <v>436</v>
       </c>
       <c r="C451" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="452" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D451">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="452" ht="21" spans="1:4">
       <c r="A452" s="6" t="s">
         <v>395</v>
       </c>
@@ -7489,10 +8475,13 @@
         <v>437</v>
       </c>
       <c r="C452" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="453" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D452">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="453" ht="21" spans="1:4">
       <c r="A453" s="6" t="s">
         <v>395</v>
       </c>
@@ -7500,10 +8489,13 @@
         <v>438</v>
       </c>
       <c r="C453" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="454" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="454" ht="21" spans="1:4">
       <c r="A454" s="6" t="s">
         <v>395</v>
       </c>
@@ -7511,10 +8503,13 @@
         <v>439</v>
       </c>
       <c r="C454" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="455" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D454">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="455" ht="21" spans="1:4">
       <c r="A455" s="6" t="s">
         <v>395</v>
       </c>
@@ -7522,10 +8517,13 @@
         <v>440</v>
       </c>
       <c r="C455" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="456" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D455">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="456" ht="21" spans="1:4">
       <c r="A456" s="6" t="s">
         <v>395</v>
       </c>
@@ -7533,10 +8531,13 @@
         <v>441</v>
       </c>
       <c r="C456" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="457" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D456">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="457" ht="21" spans="1:4">
       <c r="A457" s="6" t="s">
         <v>395</v>
       </c>
@@ -7544,10 +8545,13 @@
         <v>442</v>
       </c>
       <c r="C457" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="458" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D457">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="458" ht="21" spans="1:4">
       <c r="A458" s="6" t="s">
         <v>395</v>
       </c>
@@ -7555,10 +8559,13 @@
         <v>443</v>
       </c>
       <c r="C458" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="459" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D458">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="459" ht="21" spans="1:4">
       <c r="A459" s="6" t="s">
         <v>395</v>
       </c>
@@ -7566,10 +8573,13 @@
         <v>444</v>
       </c>
       <c r="C459" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="460" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D459">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="460" ht="21" spans="1:4">
       <c r="A460" s="6" t="s">
         <v>395</v>
       </c>
@@ -7577,10 +8587,13 @@
         <v>445</v>
       </c>
       <c r="C460" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="461" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D460">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="461" ht="21" spans="1:4">
       <c r="A461" s="6" t="s">
         <v>395</v>
       </c>
@@ -7588,10 +8601,13 @@
         <v>446</v>
       </c>
       <c r="C461" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="462" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D461">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="462" ht="21" spans="1:4">
       <c r="A462" s="6" t="s">
         <v>395</v>
       </c>
@@ -7599,10 +8615,13 @@
         <v>447</v>
       </c>
       <c r="C462" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="463" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D462">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="463" ht="21" spans="1:4">
       <c r="A463" s="6" t="s">
         <v>395</v>
       </c>
@@ -7610,10 +8629,13 @@
         <v>448</v>
       </c>
       <c r="C463" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="464" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D463">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="464" ht="21" spans="1:4">
       <c r="A464" s="6" t="s">
         <v>395</v>
       </c>
@@ -7621,10 +8643,13 @@
         <v>449</v>
       </c>
       <c r="C464" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="465" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D464">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="465" ht="21" spans="1:4">
       <c r="A465" s="6" t="s">
         <v>395</v>
       </c>
@@ -7632,10 +8657,13 @@
         <v>450</v>
       </c>
       <c r="C465" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="466" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D465">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="466" ht="21" spans="1:4">
       <c r="A466" s="6" t="s">
         <v>395</v>
       </c>
@@ -7643,10 +8671,13 @@
         <v>451</v>
       </c>
       <c r="C466" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="467" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D466">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="467" ht="21" spans="1:4">
       <c r="A467" s="6" t="s">
         <v>395</v>
       </c>
@@ -7654,10 +8685,13 @@
         <v>452</v>
       </c>
       <c r="C467" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="468" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D467">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="468" ht="21" spans="1:4">
       <c r="A468" s="6" t="s">
         <v>395</v>
       </c>
@@ -7665,10 +8699,13 @@
         <v>453</v>
       </c>
       <c r="C468" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="469" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D468">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="469" ht="21" spans="1:4">
       <c r="A469" s="6" t="s">
         <v>395</v>
       </c>
@@ -7676,7 +8713,10 @@
         <v>454</v>
       </c>
       <c r="C469" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="D469">
+        <v>60</v>
       </c>
     </row>
     <row r="470" ht="21" spans="2:3">
@@ -7688,7 +8728,7 @@
       <c r="B471" s="11"/>
       <c r="C471" s="10"/>
     </row>
-    <row r="472" ht="21" spans="1:3">
+    <row r="472" ht="21" spans="1:4">
       <c r="A472" s="6" t="s">
         <v>455</v>
       </c>
@@ -7696,10 +8736,13 @@
         <v>456</v>
       </c>
       <c r="C472" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="473" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" ht="21" spans="1:4">
       <c r="A473" s="6" t="s">
         <v>455</v>
       </c>
@@ -7707,10 +8750,13 @@
         <v>457</v>
       </c>
       <c r="C473" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="474" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D473">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" ht="21" spans="1:4">
       <c r="A474" s="6" t="s">
         <v>455</v>
       </c>
@@ -7718,10 +8764,13 @@
         <v>458</v>
       </c>
       <c r="C474" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="475" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D474">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" ht="21" spans="1:4">
       <c r="A475" s="6" t="s">
         <v>455</v>
       </c>
@@ -7729,10 +8778,13 @@
         <v>459</v>
       </c>
       <c r="C475" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="476" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D475">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="476" ht="21" spans="1:4">
       <c r="A476" s="6" t="s">
         <v>455</v>
       </c>
@@ -7740,10 +8792,13 @@
         <v>460</v>
       </c>
       <c r="C476" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="477" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D476">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477" ht="21" spans="1:4">
       <c r="A477" s="6" t="s">
         <v>455</v>
       </c>
@@ -7751,10 +8806,13 @@
         <v>461</v>
       </c>
       <c r="C477" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="478" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D477">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="478" ht="21" spans="1:4">
       <c r="A478" s="6" t="s">
         <v>455</v>
       </c>
@@ -7762,10 +8820,13 @@
         <v>462</v>
       </c>
       <c r="C478" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="479" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D478">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="479" ht="21" spans="1:4">
       <c r="A479" s="6" t="s">
         <v>455</v>
       </c>
@@ -7773,10 +8834,13 @@
         <v>463</v>
       </c>
       <c r="C479" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="480" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D479">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="480" ht="21" spans="1:4">
       <c r="A480" s="6" t="s">
         <v>455</v>
       </c>
@@ -7784,10 +8848,13 @@
         <v>464</v>
       </c>
       <c r="C480" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="481" ht="21" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D480">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="481" ht="21" spans="1:4">
       <c r="A481" s="6" t="s">
         <v>455</v>
       </c>
@@ -7795,7 +8862,10 @@
         <v>465</v>
       </c>
       <c r="C481" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="D481">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1420,8 +1420,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -1517,22 +1517,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1540,6 +1525,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1570,28 +1562,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1617,6 +1587,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1625,6 +1603,27 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1639,14 +1638,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1673,7 +1673,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1685,13 +1787,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1709,43 +1829,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1757,97 +1841,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1858,21 +1858,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1900,26 +1885,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1931,6 +1896,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1958,149 +1938,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2459,8 +2459,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="B298" sqref="B298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -3243,8 +3243,8 @@
       <c r="B62" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="10" t="s">
-        <v>26</v>
+      <c r="C62" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D62">
         <v>7</v>
@@ -6370,8 +6370,8 @@
       <c r="B296" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C296" s="10" t="s">
-        <v>26</v>
+      <c r="C296" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="D296">
         <v>1</v>
@@ -6384,8 +6384,8 @@
       <c r="B297" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C297" s="10" t="s">
-        <v>26</v>
+      <c r="C297" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="D297">
         <v>2</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1419,10 +1419,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1509,6 +1509,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1516,8 +1524,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1525,13 +1541,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1546,18 +1555,32 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1587,17 +1610,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1608,8 +1630,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1623,30 +1646,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1673,7 +1673,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1685,25 +1823,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1715,19 +1835,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1739,115 +1847,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1871,6 +1871,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1924,17 +1939,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1947,160 +1958,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2459,8 +2459,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="B298" sqref="B298"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -4779,7 +4779,7 @@
       <c r="A177" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B177" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C177" s="10" t="s">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335"/>
+    <workbookView windowWidth="23040" windowHeight="8892"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1420,9 +1420,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1509,24 +1509,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1540,9 +1531,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1555,15 +1576,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1571,9 +1585,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1610,36 +1632,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1673,7 +1673,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1685,7 +1715,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1697,97 +1817,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1799,37 +1835,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1841,13 +1847,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1858,60 +1858,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1950,6 +1896,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1961,146 +1961,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2459,7 +2459,7 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A208" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
@@ -3257,8 +3257,8 @@
       <c r="B63" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>26</v>
+      <c r="C63" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D63">
         <v>8</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8892"/>
+    <workbookView windowWidth="23040" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,10 +94,10 @@
     <t>find common elements In 3 sorted arrays</t>
   </si>
   <si>
+    <t>Rearrange the array in alternating positive and negative items with O(1) extra space</t>
+  </si>
+  <si>
     <t>&lt;-&gt;</t>
-  </si>
-  <si>
-    <t>Rearrange the array in alternating positive and negative items with O(1) extra space</t>
   </si>
   <si>
     <t>Find if there is any subarray with sum equal to 0</t>
@@ -1420,8 +1420,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -1510,20 +1510,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1538,7 +1524,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1546,21 +1539,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1576,10 +1585,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1591,16 +1600,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1614,19 +1615,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1638,15 +1630,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1673,25 +1673,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1703,19 +1745,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1733,37 +1763,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1775,19 +1775,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1799,7 +1793,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1811,13 +1829,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1829,25 +1841,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1861,26 +1861,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1891,6 +1891,24 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1911,26 +1929,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1949,158 +1958,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2459,8 +2459,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B171" sqref="B171"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A345" workbookViewId="0">
+      <selection activeCell="C356" sqref="C356:C358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -2666,7 +2666,7 @@
       <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -2750,11 +2750,11 @@
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>26</v>
+      <c r="C24" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D24">
         <v>19</v>
@@ -2764,11 +2764,11 @@
       <c r="A25" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>27</v>
+      <c r="B25" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25">
         <v>20</v>
@@ -2778,11 +2778,11 @@
       <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26">
         <v>21</v>
@@ -2796,7 +2796,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27">
         <v>22</v>
@@ -2810,7 +2810,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28">
         <v>23</v>
@@ -2824,7 +2824,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29">
         <v>24</v>
@@ -2838,7 +2838,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30">
         <v>25</v>
@@ -2852,7 +2852,7 @@
         <v>33</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D31">
         <v>26</v>
@@ -2866,7 +2866,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D32">
         <v>27</v>
@@ -2880,7 +2880,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D33">
         <v>28</v>
@@ -2894,7 +2894,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D34">
         <v>29</v>
@@ -2908,7 +2908,7 @@
         <v>37</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D35">
         <v>30</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36">
         <v>31</v>
@@ -2936,7 +2936,7 @@
         <v>39</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D37">
         <v>32</v>
@@ -2950,7 +2950,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D38">
         <v>33</v>
@@ -2964,7 +2964,7 @@
         <v>41</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D39">
         <v>34</v>
@@ -2978,7 +2978,7 @@
         <v>42</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D40">
         <v>35</v>
@@ -2992,7 +2992,7 @@
         <v>43</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D41">
         <v>36</v>
@@ -3043,7 +3043,7 @@
         <v>47</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -3057,7 +3057,7 @@
         <v>48</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D47">
         <v>4</v>
@@ -3071,7 +3071,7 @@
         <v>49</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D48">
         <v>5</v>
@@ -3085,7 +3085,7 @@
         <v>50</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D49">
         <v>6</v>
@@ -3099,7 +3099,7 @@
         <v>51</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D50">
         <v>7</v>
@@ -3113,7 +3113,7 @@
         <v>52</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D51">
         <v>8</v>
@@ -3127,7 +3127,7 @@
         <v>53</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D52">
         <v>9</v>
@@ -3141,7 +3141,7 @@
         <v>54</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D53">
         <v>10</v>
@@ -3268,11 +3268,11 @@
       <c r="A64" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D64">
         <v>9</v>
@@ -3286,7 +3286,7 @@
         <v>65</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D65">
         <v>10</v>
@@ -3300,7 +3300,7 @@
         <v>66</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D66">
         <v>11</v>
@@ -3314,7 +3314,7 @@
         <v>67</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D67">
         <v>12</v>
@@ -3328,7 +3328,7 @@
         <v>68</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D68">
         <v>13</v>
@@ -3342,7 +3342,7 @@
         <v>69</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D69">
         <v>14</v>
@@ -3356,7 +3356,7 @@
         <v>70</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D70">
         <v>15</v>
@@ -3370,7 +3370,7 @@
         <v>71</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D71">
         <v>16</v>
@@ -3384,7 +3384,7 @@
         <v>72</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D72">
         <v>17</v>
@@ -3398,7 +3398,7 @@
         <v>73</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D73">
         <v>18</v>
@@ -3412,7 +3412,7 @@
         <v>74</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D74">
         <v>19</v>
@@ -3426,7 +3426,7 @@
         <v>75</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D75">
         <v>20</v>
@@ -3440,7 +3440,7 @@
         <v>76</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D76">
         <v>21</v>
@@ -3454,7 +3454,7 @@
         <v>77</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D77">
         <v>22</v>
@@ -3468,7 +3468,7 @@
         <v>78</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D78">
         <v>23</v>
@@ -3482,7 +3482,7 @@
         <v>79</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D79">
         <v>24</v>
@@ -3496,7 +3496,7 @@
         <v>80</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D80">
         <v>25</v>
@@ -3510,7 +3510,7 @@
         <v>81</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D81">
         <v>26</v>
@@ -3524,7 +3524,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D82">
         <v>27</v>
@@ -3538,7 +3538,7 @@
         <v>83</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D83">
         <v>28</v>
@@ -3552,7 +3552,7 @@
         <v>84</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D84">
         <v>29</v>
@@ -3566,7 +3566,7 @@
         <v>85</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D85">
         <v>30</v>
@@ -3580,7 +3580,7 @@
         <v>86</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D86">
         <v>31</v>
@@ -3594,7 +3594,7 @@
         <v>87</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D87">
         <v>32</v>
@@ -3608,7 +3608,7 @@
         <v>88</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D88">
         <v>33</v>
@@ -3622,7 +3622,7 @@
         <v>89</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D89">
         <v>34</v>
@@ -3636,7 +3636,7 @@
         <v>90</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D90">
         <v>35</v>
@@ -3650,7 +3650,7 @@
         <v>91</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D91">
         <v>36</v>
@@ -3664,7 +3664,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D92">
         <v>37</v>
@@ -3678,7 +3678,7 @@
         <v>93</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D93">
         <v>38</v>
@@ -3692,7 +3692,7 @@
         <v>94</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D94">
         <v>39</v>
@@ -3706,7 +3706,7 @@
         <v>95</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D95">
         <v>40</v>
@@ -3720,7 +3720,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D96">
         <v>41</v>
@@ -3734,7 +3734,7 @@
         <v>97</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D97">
         <v>42</v>
@@ -3748,7 +3748,7 @@
         <v>98</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D98">
         <v>43</v>
@@ -3823,7 +3823,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D105">
         <v>5</v>
@@ -3833,11 +3833,11 @@
       <c r="A106" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D106">
         <v>6</v>
@@ -3851,7 +3851,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D107">
         <v>7</v>
@@ -3865,7 +3865,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D108">
         <v>8</v>
@@ -3879,7 +3879,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D109">
         <v>9</v>
@@ -3893,7 +3893,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D110">
         <v>10</v>
@@ -3907,7 +3907,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D111">
         <v>11</v>
@@ -3921,7 +3921,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D112">
         <v>12</v>
@@ -3935,7 +3935,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D113">
         <v>13</v>
@@ -3949,7 +3949,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D114">
         <v>14</v>
@@ -3963,7 +3963,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D115">
         <v>15</v>
@@ -3977,7 +3977,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D116">
         <v>16</v>
@@ -3991,7 +3991,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D117">
         <v>17</v>
@@ -4005,7 +4005,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D118">
         <v>18</v>
@@ -4019,7 +4019,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D119">
         <v>19</v>
@@ -4033,7 +4033,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D120">
         <v>20</v>
@@ -4047,7 +4047,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D121">
         <v>21</v>
@@ -4061,7 +4061,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D122">
         <v>22</v>
@@ -4075,7 +4075,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D123">
         <v>23</v>
@@ -4089,7 +4089,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D124">
         <v>24</v>
@@ -4103,7 +4103,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D125">
         <v>25</v>
@@ -4117,7 +4117,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D126">
         <v>26</v>
@@ -4131,7 +4131,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D127">
         <v>27</v>
@@ -4145,7 +4145,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D128">
         <v>28</v>
@@ -4159,7 +4159,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D129">
         <v>29</v>
@@ -4173,7 +4173,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D130">
         <v>30</v>
@@ -4187,7 +4187,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D131">
         <v>31</v>
@@ -4201,7 +4201,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D132">
         <v>32</v>
@@ -4215,7 +4215,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D133">
         <v>33</v>
@@ -4229,7 +4229,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D134">
         <v>34</v>
@@ -4243,7 +4243,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D135">
         <v>35</v>
@@ -4257,7 +4257,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D136">
         <v>36</v>
@@ -4271,11 +4271,11 @@
       <c r="A139" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C139" s="10" t="s">
-        <v>26</v>
+      <c r="C139" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -4285,11 +4285,11 @@
       <c r="A140" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B140" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D140">
         <v>2</v>
@@ -4303,7 +4303,7 @@
         <v>139</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D141">
         <v>3</v>
@@ -4317,7 +4317,7 @@
         <v>140</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D142">
         <v>4</v>
@@ -4331,7 +4331,7 @@
         <v>141</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D143">
         <v>5</v>
@@ -4345,7 +4345,7 @@
         <v>142</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D144">
         <v>6</v>
@@ -4359,7 +4359,7 @@
         <v>143</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D145">
         <v>7</v>
@@ -4373,7 +4373,7 @@
         <v>144</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D146">
         <v>8</v>
@@ -4387,7 +4387,7 @@
         <v>145</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D147">
         <v>9</v>
@@ -4401,7 +4401,7 @@
         <v>146</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D148">
         <v>10</v>
@@ -4415,7 +4415,7 @@
         <v>147</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D149">
         <v>11</v>
@@ -4429,7 +4429,7 @@
         <v>148</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D150">
         <v>12</v>
@@ -4443,7 +4443,7 @@
         <v>149</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D151">
         <v>13</v>
@@ -4457,7 +4457,7 @@
         <v>150</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D152">
         <v>14</v>
@@ -4471,7 +4471,7 @@
         <v>151</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D153">
         <v>15</v>
@@ -4485,7 +4485,7 @@
         <v>152</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D154">
         <v>16</v>
@@ -4499,7 +4499,7 @@
         <v>153</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D155">
         <v>17</v>
@@ -4513,7 +4513,7 @@
         <v>154</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D156">
         <v>18</v>
@@ -4527,7 +4527,7 @@
         <v>155</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D157">
         <v>19</v>
@@ -4541,7 +4541,7 @@
         <v>156</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D158">
         <v>20</v>
@@ -4555,7 +4555,7 @@
         <v>157</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D159">
         <v>21</v>
@@ -4569,7 +4569,7 @@
         <v>158</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D160">
         <v>22</v>
@@ -4583,7 +4583,7 @@
         <v>159</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D161">
         <v>23</v>
@@ -4597,7 +4597,7 @@
         <v>160</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D162">
         <v>24</v>
@@ -4611,7 +4611,7 @@
         <v>161</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D163">
         <v>25</v>
@@ -4625,7 +4625,7 @@
         <v>162</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D164">
         <v>26</v>
@@ -4639,7 +4639,7 @@
         <v>163</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D165">
         <v>27</v>
@@ -4653,7 +4653,7 @@
         <v>164</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D166">
         <v>28</v>
@@ -4667,7 +4667,7 @@
         <v>165</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D167">
         <v>29</v>
@@ -4681,7 +4681,7 @@
         <v>166</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D168">
         <v>30</v>
@@ -4695,7 +4695,7 @@
         <v>167</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D169">
         <v>31</v>
@@ -4709,7 +4709,7 @@
         <v>168</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D170">
         <v>32</v>
@@ -4723,7 +4723,7 @@
         <v>169</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D171">
         <v>33</v>
@@ -4737,7 +4737,7 @@
         <v>170</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D172">
         <v>34</v>
@@ -4751,7 +4751,7 @@
         <v>171</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D173">
         <v>35</v>
@@ -4765,7 +4765,7 @@
         <v>172</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D174">
         <v>36</v>
@@ -4783,7 +4783,7 @@
         <v>174</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -4797,7 +4797,7 @@
         <v>175</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D178">
         <v>2</v>
@@ -4811,7 +4811,7 @@
         <v>176</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D179">
         <v>3</v>
@@ -4825,7 +4825,7 @@
         <v>177</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D180">
         <v>4</v>
@@ -4839,7 +4839,7 @@
         <v>178</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D181">
         <v>5</v>
@@ -4853,7 +4853,7 @@
         <v>179</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D182">
         <v>6</v>
@@ -4867,7 +4867,7 @@
         <v>180</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D183">
         <v>7</v>
@@ -4881,7 +4881,7 @@
         <v>181</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D184">
         <v>8</v>
@@ -4895,7 +4895,7 @@
         <v>182</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D185">
         <v>9</v>
@@ -4909,7 +4909,7 @@
         <v>183</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D186">
         <v>10</v>
@@ -4923,7 +4923,7 @@
         <v>184</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D187">
         <v>11</v>
@@ -4937,7 +4937,7 @@
         <v>185</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D188">
         <v>12</v>
@@ -4951,7 +4951,7 @@
         <v>186</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D189">
         <v>13</v>
@@ -4965,7 +4965,7 @@
         <v>187</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D190">
         <v>14</v>
@@ -4979,7 +4979,7 @@
         <v>188</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D191">
         <v>15</v>
@@ -4993,7 +4993,7 @@
         <v>189</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D192">
         <v>16</v>
@@ -5007,7 +5007,7 @@
         <v>190</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D193">
         <v>17</v>
@@ -5021,7 +5021,7 @@
         <v>191</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D194">
         <v>18</v>
@@ -5035,7 +5035,7 @@
         <v>192</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D195">
         <v>19</v>
@@ -5049,7 +5049,7 @@
         <v>193</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D196">
         <v>20</v>
@@ -5063,7 +5063,7 @@
         <v>194</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D197">
         <v>21</v>
@@ -5077,7 +5077,7 @@
         <v>195</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D198">
         <v>22</v>
@@ -5091,7 +5091,7 @@
         <v>196</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D199">
         <v>23</v>
@@ -5105,7 +5105,7 @@
         <v>197</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D200">
         <v>24</v>
@@ -5119,7 +5119,7 @@
         <v>198</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D201">
         <v>25</v>
@@ -5133,7 +5133,7 @@
         <v>199</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D202">
         <v>26</v>
@@ -5147,7 +5147,7 @@
         <v>200</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D203">
         <v>27</v>
@@ -5161,7 +5161,7 @@
         <v>201</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D204">
         <v>28</v>
@@ -5175,7 +5175,7 @@
         <v>202</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D205">
         <v>29</v>
@@ -5189,7 +5189,7 @@
         <v>203</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D206">
         <v>30</v>
@@ -5203,7 +5203,7 @@
         <v>204</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D207">
         <v>31</v>
@@ -5217,7 +5217,7 @@
         <v>205</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D208">
         <v>32</v>
@@ -5231,7 +5231,7 @@
         <v>206</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D209">
         <v>33</v>
@@ -5245,7 +5245,7 @@
         <v>207</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D210">
         <v>34</v>
@@ -5259,7 +5259,7 @@
         <v>208</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D211">
         <v>35</v>
@@ -5283,7 +5283,7 @@
         <v>210</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -5297,7 +5297,7 @@
         <v>211</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D215">
         <v>2</v>
@@ -5311,7 +5311,7 @@
         <v>212</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D216">
         <v>3</v>
@@ -5325,7 +5325,7 @@
         <v>213</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D217">
         <v>4</v>
@@ -5339,7 +5339,7 @@
         <v>214</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D218">
         <v>5</v>
@@ -5353,7 +5353,7 @@
         <v>215</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D219">
         <v>6</v>
@@ -5367,7 +5367,7 @@
         <v>216</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D220">
         <v>7</v>
@@ -5381,7 +5381,7 @@
         <v>217</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D221">
         <v>8</v>
@@ -5395,7 +5395,7 @@
         <v>218</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D222">
         <v>9</v>
@@ -5409,7 +5409,7 @@
         <v>219</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D223">
         <v>10</v>
@@ -5423,7 +5423,7 @@
         <v>220</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D224">
         <v>11</v>
@@ -5437,7 +5437,7 @@
         <v>221</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D225">
         <v>12</v>
@@ -5451,7 +5451,7 @@
         <v>222</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D226">
         <v>13</v>
@@ -5465,7 +5465,7 @@
         <v>223</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D227">
         <v>14</v>
@@ -5479,7 +5479,7 @@
         <v>224</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D228">
         <v>15</v>
@@ -5493,7 +5493,7 @@
         <v>225</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D229">
         <v>16</v>
@@ -5507,7 +5507,7 @@
         <v>226</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D230">
         <v>17</v>
@@ -5521,7 +5521,7 @@
         <v>227</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D231">
         <v>18</v>
@@ -5535,7 +5535,7 @@
         <v>228</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D232">
         <v>19</v>
@@ -5549,7 +5549,7 @@
         <v>229</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D233">
         <v>20</v>
@@ -5563,7 +5563,7 @@
         <v>230</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D234">
         <v>21</v>
@@ -5577,7 +5577,7 @@
         <v>231</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D235">
         <v>22</v>
@@ -5599,7 +5599,7 @@
         <v>233</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D238">
         <v>1</v>
@@ -5613,7 +5613,7 @@
         <v>234</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D239">
         <v>2</v>
@@ -5627,7 +5627,7 @@
         <v>235</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D240">
         <v>3</v>
@@ -5641,7 +5641,7 @@
         <v>236</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D241">
         <v>4</v>
@@ -5655,7 +5655,7 @@
         <v>237</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D242">
         <v>5</v>
@@ -5669,7 +5669,7 @@
         <v>238</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D243">
         <v>6</v>
@@ -5683,7 +5683,7 @@
         <v>239</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D244">
         <v>7</v>
@@ -5697,7 +5697,7 @@
         <v>240</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D245">
         <v>8</v>
@@ -5711,7 +5711,7 @@
         <v>241</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D246">
         <v>9</v>
@@ -5725,7 +5725,7 @@
         <v>242</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D247">
         <v>10</v>
@@ -5739,7 +5739,7 @@
         <v>243</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D248">
         <v>11</v>
@@ -5753,7 +5753,7 @@
         <v>244</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D249">
         <v>12</v>
@@ -5767,7 +5767,7 @@
         <v>245</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D250">
         <v>13</v>
@@ -5781,7 +5781,7 @@
         <v>246</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D251">
         <v>14</v>
@@ -5795,7 +5795,7 @@
         <v>247</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D252">
         <v>15</v>
@@ -5809,7 +5809,7 @@
         <v>248</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D253">
         <v>16</v>
@@ -5823,7 +5823,7 @@
         <v>249</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D254">
         <v>17</v>
@@ -5837,7 +5837,7 @@
         <v>250</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D255">
         <v>18</v>
@@ -5851,7 +5851,7 @@
         <v>251</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D256">
         <v>19</v>
@@ -5865,7 +5865,7 @@
         <v>252</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D257">
         <v>20</v>
@@ -5879,7 +5879,7 @@
         <v>253</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D258">
         <v>21</v>
@@ -5893,7 +5893,7 @@
         <v>254</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D259">
         <v>22</v>
@@ -5907,7 +5907,7 @@
         <v>255</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D260">
         <v>23</v>
@@ -5921,7 +5921,7 @@
         <v>256</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D261">
         <v>24</v>
@@ -5935,7 +5935,7 @@
         <v>257</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D262">
         <v>25</v>
@@ -5949,7 +5949,7 @@
         <v>258</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D263">
         <v>26</v>
@@ -5963,7 +5963,7 @@
         <v>259</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D264">
         <v>27</v>
@@ -5977,7 +5977,7 @@
         <v>260</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D265">
         <v>28</v>
@@ -5991,7 +5991,7 @@
         <v>261</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D266">
         <v>29</v>
@@ -6005,7 +6005,7 @@
         <v>262</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D267">
         <v>30</v>
@@ -6019,7 +6019,7 @@
         <v>263</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D268">
         <v>31</v>
@@ -6033,7 +6033,7 @@
         <v>264</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D269">
         <v>32</v>
@@ -6047,7 +6047,7 @@
         <v>265</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D270">
         <v>33</v>
@@ -6061,7 +6061,7 @@
         <v>89</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D271">
         <v>34</v>
@@ -6075,7 +6075,7 @@
         <v>266</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D272">
         <v>35</v>
@@ -6097,7 +6097,7 @@
         <v>268</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D275">
         <v>1</v>
@@ -6111,7 +6111,7 @@
         <v>269</v>
       </c>
       <c r="C276" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D276">
         <v>2</v>
@@ -6125,7 +6125,7 @@
         <v>270</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D277">
         <v>3</v>
@@ -6139,7 +6139,7 @@
         <v>271</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D278">
         <v>4</v>
@@ -6153,7 +6153,7 @@
         <v>272</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D279">
         <v>5</v>
@@ -6167,7 +6167,7 @@
         <v>273</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D280">
         <v>6</v>
@@ -6181,7 +6181,7 @@
         <v>274</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D281">
         <v>7</v>
@@ -6195,7 +6195,7 @@
         <v>275</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D282">
         <v>8</v>
@@ -6209,7 +6209,7 @@
         <v>276</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D283">
         <v>9</v>
@@ -6223,7 +6223,7 @@
         <v>277</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D284">
         <v>10</v>
@@ -6237,7 +6237,7 @@
         <v>278</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D285">
         <v>11</v>
@@ -6251,7 +6251,7 @@
         <v>279</v>
       </c>
       <c r="C286" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D286">
         <v>12</v>
@@ -6265,7 +6265,7 @@
         <v>280</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D287">
         <v>13</v>
@@ -6279,7 +6279,7 @@
         <v>281</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D288">
         <v>14</v>
@@ -6293,7 +6293,7 @@
         <v>282</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D289">
         <v>15</v>
@@ -6307,7 +6307,7 @@
         <v>283</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D290">
         <v>16</v>
@@ -6321,7 +6321,7 @@
         <v>284</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D291">
         <v>17</v>
@@ -6335,7 +6335,7 @@
         <v>285</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D292">
         <v>18</v>
@@ -6349,7 +6349,7 @@
         <v>286</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D293">
         <v>19</v>
@@ -6395,11 +6395,11 @@
       <c r="A298" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="B298" s="7" t="s">
+      <c r="B298" s="9" t="s">
         <v>290</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D298">
         <v>3</v>
@@ -6413,7 +6413,7 @@
         <v>291</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D299">
         <v>4</v>
@@ -6427,7 +6427,7 @@
         <v>292</v>
       </c>
       <c r="C300" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D300">
         <v>5</v>
@@ -6441,7 +6441,7 @@
         <v>293</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D301">
         <v>6</v>
@@ -6455,7 +6455,7 @@
         <v>294</v>
       </c>
       <c r="C302" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D302">
         <v>7</v>
@@ -6469,7 +6469,7 @@
         <v>295</v>
       </c>
       <c r="C303" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D303">
         <v>8</v>
@@ -6483,7 +6483,7 @@
         <v>296</v>
       </c>
       <c r="C304" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D304">
         <v>9</v>
@@ -6497,7 +6497,7 @@
         <v>297</v>
       </c>
       <c r="C305" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D305">
         <v>10</v>
@@ -6511,7 +6511,7 @@
         <v>298</v>
       </c>
       <c r="C306" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D306">
         <v>11</v>
@@ -6525,7 +6525,7 @@
         <v>299</v>
       </c>
       <c r="C307" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D307">
         <v>12</v>
@@ -6539,7 +6539,7 @@
         <v>300</v>
       </c>
       <c r="C308" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D308">
         <v>13</v>
@@ -6553,7 +6553,7 @@
         <v>301</v>
       </c>
       <c r="C309" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D309">
         <v>14</v>
@@ -6567,7 +6567,7 @@
         <v>302</v>
       </c>
       <c r="C310" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D310">
         <v>15</v>
@@ -6581,7 +6581,7 @@
         <v>303</v>
       </c>
       <c r="C311" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D311">
         <v>16</v>
@@ -6595,7 +6595,7 @@
         <v>304</v>
       </c>
       <c r="C312" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D312">
         <v>17</v>
@@ -6609,7 +6609,7 @@
         <v>305</v>
       </c>
       <c r="C313" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D313">
         <v>18</v>
@@ -6623,7 +6623,7 @@
         <v>306</v>
       </c>
       <c r="C314" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D314">
         <v>19</v>
@@ -6637,7 +6637,7 @@
         <v>307</v>
       </c>
       <c r="C315" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D315">
         <v>20</v>
@@ -6651,7 +6651,7 @@
         <v>308</v>
       </c>
       <c r="C316" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D316">
         <v>21</v>
@@ -6665,7 +6665,7 @@
         <v>309</v>
       </c>
       <c r="C317" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D317">
         <v>22</v>
@@ -6679,7 +6679,7 @@
         <v>310</v>
       </c>
       <c r="C318" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D318">
         <v>23</v>
@@ -6693,7 +6693,7 @@
         <v>311</v>
       </c>
       <c r="C319" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D319">
         <v>24</v>
@@ -6707,7 +6707,7 @@
         <v>312</v>
       </c>
       <c r="C320" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D320">
         <v>25</v>
@@ -6721,7 +6721,7 @@
         <v>313</v>
       </c>
       <c r="C321" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D321">
         <v>26</v>
@@ -6735,7 +6735,7 @@
         <v>314</v>
       </c>
       <c r="C322" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D322">
         <v>27</v>
@@ -6749,7 +6749,7 @@
         <v>315</v>
       </c>
       <c r="C323" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D323">
         <v>28</v>
@@ -6763,7 +6763,7 @@
         <v>316</v>
       </c>
       <c r="C324" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D324">
         <v>29</v>
@@ -6777,7 +6777,7 @@
         <v>317</v>
       </c>
       <c r="C325" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D325">
         <v>30</v>
@@ -6791,7 +6791,7 @@
         <v>318</v>
       </c>
       <c r="C326" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D326">
         <v>31</v>
@@ -6805,7 +6805,7 @@
         <v>319</v>
       </c>
       <c r="C327" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D327">
         <v>32</v>
@@ -6819,7 +6819,7 @@
         <v>320</v>
       </c>
       <c r="C328" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D328">
         <v>33</v>
@@ -6833,7 +6833,7 @@
         <v>321</v>
       </c>
       <c r="C329" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D329">
         <v>34</v>
@@ -6847,7 +6847,7 @@
         <v>322</v>
       </c>
       <c r="C330" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D330">
         <v>35</v>
@@ -6861,7 +6861,7 @@
         <v>323</v>
       </c>
       <c r="C331" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D331">
         <v>36</v>
@@ -6875,7 +6875,7 @@
         <v>324</v>
       </c>
       <c r="C332" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D332">
         <v>37</v>
@@ -6889,7 +6889,7 @@
         <v>325</v>
       </c>
       <c r="C333" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D333">
         <v>38</v>
@@ -6911,7 +6911,7 @@
         <v>327</v>
       </c>
       <c r="C336" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D336">
         <v>1</v>
@@ -6925,7 +6925,7 @@
         <v>328</v>
       </c>
       <c r="C337" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D337">
         <v>2</v>
@@ -6939,7 +6939,7 @@
         <v>329</v>
       </c>
       <c r="C338" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D338">
         <v>3</v>
@@ -6953,7 +6953,7 @@
         <v>330</v>
       </c>
       <c r="C339" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D339">
         <v>4</v>
@@ -6967,7 +6967,7 @@
         <v>331</v>
       </c>
       <c r="C340" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D340">
         <v>5</v>
@@ -6981,7 +6981,7 @@
         <v>332</v>
       </c>
       <c r="C341" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D341">
         <v>6</v>
@@ -6995,7 +6995,7 @@
         <v>333</v>
       </c>
       <c r="C342" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D342">
         <v>7</v>
@@ -7009,7 +7009,7 @@
         <v>334</v>
       </c>
       <c r="C343" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D343">
         <v>8</v>
@@ -7023,7 +7023,7 @@
         <v>335</v>
       </c>
       <c r="C344" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D344">
         <v>9</v>
@@ -7037,7 +7037,7 @@
         <v>336</v>
       </c>
       <c r="C345" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D345">
         <v>10</v>
@@ -7051,7 +7051,7 @@
         <v>337</v>
       </c>
       <c r="C346" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D346">
         <v>11</v>
@@ -7065,7 +7065,7 @@
         <v>338</v>
       </c>
       <c r="C347" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D347">
         <v>12</v>
@@ -7079,7 +7079,7 @@
         <v>339</v>
       </c>
       <c r="C348" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D348">
         <v>13</v>
@@ -7093,7 +7093,7 @@
         <v>340</v>
       </c>
       <c r="C349" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D349">
         <v>14</v>
@@ -7107,7 +7107,7 @@
         <v>341</v>
       </c>
       <c r="C350" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D350">
         <v>15</v>
@@ -7121,7 +7121,7 @@
         <v>342</v>
       </c>
       <c r="C351" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D351">
         <v>16</v>
@@ -7135,7 +7135,7 @@
         <v>343</v>
       </c>
       <c r="C352" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D352">
         <v>17</v>
@@ -7149,7 +7149,7 @@
         <v>344</v>
       </c>
       <c r="C353" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D353">
         <v>18</v>
@@ -7170,8 +7170,8 @@
       <c r="B356" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="C356" s="10" t="s">
-        <v>26</v>
+      <c r="C356" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D356">
         <v>1</v>
@@ -7184,8 +7184,8 @@
       <c r="B357" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="C357" s="10" t="s">
-        <v>26</v>
+      <c r="C357" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D357">
         <v>2</v>
@@ -7198,8 +7198,8 @@
       <c r="B358" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="C358" s="10" t="s">
-        <v>26</v>
+      <c r="C358" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D358">
         <v>3</v>
@@ -7213,7 +7213,7 @@
         <v>349</v>
       </c>
       <c r="C359" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D359">
         <v>4</v>
@@ -7227,7 +7227,7 @@
         <v>350</v>
       </c>
       <c r="C360" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D360">
         <v>5</v>
@@ -7241,7 +7241,7 @@
         <v>351</v>
       </c>
       <c r="C361" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D361">
         <v>6</v>
@@ -7255,7 +7255,7 @@
         <v>352</v>
       </c>
       <c r="C362" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D362">
         <v>7</v>
@@ -7269,7 +7269,7 @@
         <v>353</v>
       </c>
       <c r="C363" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D363">
         <v>8</v>
@@ -7283,7 +7283,7 @@
         <v>354</v>
       </c>
       <c r="C364" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D364">
         <v>9</v>
@@ -7297,7 +7297,7 @@
         <v>355</v>
       </c>
       <c r="C365" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D365">
         <v>10</v>
@@ -7311,7 +7311,7 @@
         <v>356</v>
       </c>
       <c r="C366" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D366">
         <v>11</v>
@@ -7325,7 +7325,7 @@
         <v>357</v>
       </c>
       <c r="C367" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D367">
         <v>12</v>
@@ -7339,7 +7339,7 @@
         <v>358</v>
       </c>
       <c r="C368" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D368">
         <v>13</v>
@@ -7353,7 +7353,7 @@
         <v>359</v>
       </c>
       <c r="C369" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D369">
         <v>14</v>
@@ -7367,7 +7367,7 @@
         <v>360</v>
       </c>
       <c r="C370" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D370">
         <v>15</v>
@@ -7381,7 +7381,7 @@
         <v>361</v>
       </c>
       <c r="C371" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D371">
         <v>16</v>
@@ -7395,7 +7395,7 @@
         <v>362</v>
       </c>
       <c r="C372" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D372">
         <v>17</v>
@@ -7409,7 +7409,7 @@
         <v>363</v>
       </c>
       <c r="C373" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D373">
         <v>18</v>
@@ -7423,7 +7423,7 @@
         <v>364</v>
       </c>
       <c r="C374" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D374">
         <v>19</v>
@@ -7437,7 +7437,7 @@
         <v>365</v>
       </c>
       <c r="C375" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D375">
         <v>20</v>
@@ -7451,7 +7451,7 @@
         <v>366</v>
       </c>
       <c r="C376" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D376">
         <v>21</v>
@@ -7465,7 +7465,7 @@
         <v>367</v>
       </c>
       <c r="C377" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D377">
         <v>22</v>
@@ -7479,7 +7479,7 @@
         <v>368</v>
       </c>
       <c r="C378" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D378">
         <v>23</v>
@@ -7493,7 +7493,7 @@
         <v>369</v>
       </c>
       <c r="C379" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D379">
         <v>24</v>
@@ -7507,7 +7507,7 @@
         <v>370</v>
       </c>
       <c r="C380" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D380">
         <v>25</v>
@@ -7521,7 +7521,7 @@
         <v>371</v>
       </c>
       <c r="C381" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D381">
         <v>26</v>
@@ -7535,7 +7535,7 @@
         <v>372</v>
       </c>
       <c r="C382" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D382">
         <v>27</v>
@@ -7549,7 +7549,7 @@
         <v>373</v>
       </c>
       <c r="C383" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D383">
         <v>28</v>
@@ -7563,7 +7563,7 @@
         <v>374</v>
       </c>
       <c r="C384" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D384">
         <v>29</v>
@@ -7577,7 +7577,7 @@
         <v>375</v>
       </c>
       <c r="C385" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D385">
         <v>30</v>
@@ -7591,7 +7591,7 @@
         <v>376</v>
       </c>
       <c r="C386" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D386">
         <v>31</v>
@@ -7605,7 +7605,7 @@
         <v>377</v>
       </c>
       <c r="C387" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D387">
         <v>32</v>
@@ -7619,7 +7619,7 @@
         <v>378</v>
       </c>
       <c r="C388" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D388">
         <v>33</v>
@@ -7633,7 +7633,7 @@
         <v>379</v>
       </c>
       <c r="C389" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D389">
         <v>34</v>
@@ -7647,7 +7647,7 @@
         <v>379</v>
       </c>
       <c r="C390" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D390">
         <v>35</v>
@@ -7661,7 +7661,7 @@
         <v>380</v>
       </c>
       <c r="C391" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D391">
         <v>36</v>
@@ -7675,7 +7675,7 @@
         <v>381</v>
       </c>
       <c r="C392" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D392">
         <v>37</v>
@@ -7689,7 +7689,7 @@
         <v>382</v>
       </c>
       <c r="C393" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D393">
         <v>38</v>
@@ -7703,7 +7703,7 @@
         <v>383</v>
       </c>
       <c r="C394" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D394">
         <v>39</v>
@@ -7717,7 +7717,7 @@
         <v>384</v>
       </c>
       <c r="C395" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D395">
         <v>40</v>
@@ -7731,7 +7731,7 @@
         <v>385</v>
       </c>
       <c r="C396" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D396">
         <v>41</v>
@@ -7745,7 +7745,7 @@
         <v>386</v>
       </c>
       <c r="C397" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D397">
         <v>42</v>
@@ -7759,7 +7759,7 @@
         <v>387</v>
       </c>
       <c r="C398" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D398">
         <v>43</v>
@@ -7773,7 +7773,7 @@
         <v>388</v>
       </c>
       <c r="C399" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D399">
         <v>44</v>
@@ -7795,7 +7795,7 @@
         <v>390</v>
       </c>
       <c r="C402" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D402">
         <v>1</v>
@@ -7809,7 +7809,7 @@
         <v>391</v>
       </c>
       <c r="C403" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D403">
         <v>2</v>
@@ -7823,7 +7823,7 @@
         <v>392</v>
       </c>
       <c r="C404" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D404">
         <v>3</v>
@@ -7837,7 +7837,7 @@
         <v>91</v>
       </c>
       <c r="C405" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D405">
         <v>4</v>
@@ -7851,7 +7851,7 @@
         <v>393</v>
       </c>
       <c r="C406" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D406">
         <v>5</v>
@@ -7865,7 +7865,7 @@
         <v>394</v>
       </c>
       <c r="C407" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D407">
         <v>6</v>
@@ -7887,7 +7887,7 @@
         <v>396</v>
       </c>
       <c r="C410" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D410">
         <v>1</v>
@@ -7901,7 +7901,7 @@
         <v>397</v>
       </c>
       <c r="C411" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D411">
         <v>2</v>
@@ -7915,7 +7915,7 @@
         <v>398</v>
       </c>
       <c r="C412" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D412">
         <v>3</v>
@@ -7929,7 +7929,7 @@
         <v>399</v>
       </c>
       <c r="C413" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D413">
         <v>4</v>
@@ -7943,7 +7943,7 @@
         <v>400</v>
       </c>
       <c r="C414" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D414">
         <v>5</v>
@@ -7957,7 +7957,7 @@
         <v>401</v>
       </c>
       <c r="C415" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D415">
         <v>6</v>
@@ -7971,7 +7971,7 @@
         <v>402</v>
       </c>
       <c r="C416" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D416">
         <v>7</v>
@@ -7985,7 +7985,7 @@
         <v>275</v>
       </c>
       <c r="C417" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D417">
         <v>8</v>
@@ -7999,7 +7999,7 @@
         <v>403</v>
       </c>
       <c r="C418" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D418">
         <v>9</v>
@@ -8013,7 +8013,7 @@
         <v>404</v>
       </c>
       <c r="C419" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D419">
         <v>10</v>
@@ -8027,7 +8027,7 @@
         <v>405</v>
       </c>
       <c r="C420" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D420">
         <v>11</v>
@@ -8041,7 +8041,7 @@
         <v>406</v>
       </c>
       <c r="C421" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D421">
         <v>12</v>
@@ -8055,7 +8055,7 @@
         <v>407</v>
       </c>
       <c r="C422" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D422">
         <v>13</v>
@@ -8069,7 +8069,7 @@
         <v>408</v>
       </c>
       <c r="C423" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D423">
         <v>14</v>
@@ -8083,7 +8083,7 @@
         <v>409</v>
       </c>
       <c r="C424" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D424">
         <v>15</v>
@@ -8097,7 +8097,7 @@
         <v>410</v>
       </c>
       <c r="C425" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D425">
         <v>16</v>
@@ -8111,7 +8111,7 @@
         <v>411</v>
       </c>
       <c r="C426" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D426">
         <v>17</v>
@@ -8125,7 +8125,7 @@
         <v>412</v>
       </c>
       <c r="C427" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D427">
         <v>18</v>
@@ -8139,7 +8139,7 @@
         <v>413</v>
       </c>
       <c r="C428" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D428">
         <v>19</v>
@@ -8153,7 +8153,7 @@
         <v>414</v>
       </c>
       <c r="C429" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D429">
         <v>20</v>
@@ -8167,7 +8167,7 @@
         <v>415</v>
       </c>
       <c r="C430" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D430">
         <v>21</v>
@@ -8181,7 +8181,7 @@
         <v>416</v>
       </c>
       <c r="C431" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D431">
         <v>22</v>
@@ -8195,7 +8195,7 @@
         <v>417</v>
       </c>
       <c r="C432" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D432">
         <v>23</v>
@@ -8209,7 +8209,7 @@
         <v>418</v>
       </c>
       <c r="C433" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D433">
         <v>24</v>
@@ -8223,7 +8223,7 @@
         <v>419</v>
       </c>
       <c r="C434" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D434">
         <v>25</v>
@@ -8237,7 +8237,7 @@
         <v>420</v>
       </c>
       <c r="C435" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D435">
         <v>26</v>
@@ -8251,7 +8251,7 @@
         <v>421</v>
       </c>
       <c r="C436" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D436">
         <v>27</v>
@@ -8265,7 +8265,7 @@
         <v>422</v>
       </c>
       <c r="C437" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D437">
         <v>28</v>
@@ -8279,7 +8279,7 @@
         <v>423</v>
       </c>
       <c r="C438" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D438">
         <v>29</v>
@@ -8293,7 +8293,7 @@
         <v>424</v>
       </c>
       <c r="C439" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D439">
         <v>30</v>
@@ -8307,7 +8307,7 @@
         <v>425</v>
       </c>
       <c r="C440" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D440">
         <v>31</v>
@@ -8321,7 +8321,7 @@
         <v>426</v>
       </c>
       <c r="C441" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D441">
         <v>32</v>
@@ -8335,7 +8335,7 @@
         <v>427</v>
       </c>
       <c r="C442" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D442">
         <v>33</v>
@@ -8349,7 +8349,7 @@
         <v>428</v>
       </c>
       <c r="C443" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D443">
         <v>34</v>
@@ -8363,7 +8363,7 @@
         <v>429</v>
       </c>
       <c r="C444" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D444">
         <v>35</v>
@@ -8377,7 +8377,7 @@
         <v>430</v>
       </c>
       <c r="C445" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D445">
         <v>36</v>
@@ -8391,7 +8391,7 @@
         <v>431</v>
       </c>
       <c r="C446" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D446">
         <v>37</v>
@@ -8405,7 +8405,7 @@
         <v>432</v>
       </c>
       <c r="C447" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D447">
         <v>38</v>
@@ -8419,7 +8419,7 @@
         <v>433</v>
       </c>
       <c r="C448" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D448">
         <v>39</v>
@@ -8433,7 +8433,7 @@
         <v>434</v>
       </c>
       <c r="C449" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D449">
         <v>40</v>
@@ -8447,7 +8447,7 @@
         <v>435</v>
       </c>
       <c r="C450" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D450">
         <v>41</v>
@@ -8461,7 +8461,7 @@
         <v>436</v>
       </c>
       <c r="C451" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D451">
         <v>42</v>
@@ -8475,7 +8475,7 @@
         <v>437</v>
       </c>
       <c r="C452" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D452">
         <v>43</v>
@@ -8489,7 +8489,7 @@
         <v>438</v>
       </c>
       <c r="C453" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D453">
         <v>44</v>
@@ -8503,7 +8503,7 @@
         <v>439</v>
       </c>
       <c r="C454" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D454">
         <v>45</v>
@@ -8517,7 +8517,7 @@
         <v>440</v>
       </c>
       <c r="C455" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D455">
         <v>46</v>
@@ -8531,7 +8531,7 @@
         <v>441</v>
       </c>
       <c r="C456" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D456">
         <v>47</v>
@@ -8545,7 +8545,7 @@
         <v>442</v>
       </c>
       <c r="C457" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D457">
         <v>48</v>
@@ -8559,7 +8559,7 @@
         <v>443</v>
       </c>
       <c r="C458" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D458">
         <v>49</v>
@@ -8573,7 +8573,7 @@
         <v>444</v>
       </c>
       <c r="C459" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D459">
         <v>50</v>
@@ -8587,7 +8587,7 @@
         <v>445</v>
       </c>
       <c r="C460" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D460">
         <v>51</v>
@@ -8601,7 +8601,7 @@
         <v>446</v>
       </c>
       <c r="C461" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D461">
         <v>52</v>
@@ -8615,7 +8615,7 @@
         <v>447</v>
       </c>
       <c r="C462" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D462">
         <v>53</v>
@@ -8629,7 +8629,7 @@
         <v>448</v>
       </c>
       <c r="C463" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D463">
         <v>54</v>
@@ -8643,7 +8643,7 @@
         <v>449</v>
       </c>
       <c r="C464" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D464">
         <v>55</v>
@@ -8657,7 +8657,7 @@
         <v>450</v>
       </c>
       <c r="C465" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D465">
         <v>56</v>
@@ -8671,7 +8671,7 @@
         <v>451</v>
       </c>
       <c r="C466" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D466">
         <v>57</v>
@@ -8685,7 +8685,7 @@
         <v>452</v>
       </c>
       <c r="C467" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D467">
         <v>58</v>
@@ -8699,7 +8699,7 @@
         <v>453</v>
       </c>
       <c r="C468" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D468">
         <v>59</v>
@@ -8713,7 +8713,7 @@
         <v>454</v>
       </c>
       <c r="C469" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D469">
         <v>60</v>
@@ -8736,7 +8736,7 @@
         <v>456</v>
       </c>
       <c r="C472" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D472">
         <v>1</v>
@@ -8750,7 +8750,7 @@
         <v>457</v>
       </c>
       <c r="C473" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D473">
         <v>2</v>
@@ -8764,7 +8764,7 @@
         <v>458</v>
       </c>
       <c r="C474" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D474">
         <v>3</v>
@@ -8778,7 +8778,7 @@
         <v>459</v>
       </c>
       <c r="C475" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D475">
         <v>4</v>
@@ -8792,7 +8792,7 @@
         <v>460</v>
       </c>
       <c r="C476" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D476">
         <v>5</v>
@@ -8806,7 +8806,7 @@
         <v>461</v>
       </c>
       <c r="C477" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D477">
         <v>6</v>
@@ -8820,7 +8820,7 @@
         <v>462</v>
       </c>
       <c r="C478" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D478">
         <v>7</v>
@@ -8834,7 +8834,7 @@
         <v>463</v>
       </c>
       <c r="C479" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D479">
         <v>8</v>
@@ -8848,7 +8848,7 @@
         <v>464</v>
       </c>
       <c r="C480" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D480">
         <v>9</v>
@@ -8862,7 +8862,7 @@
         <v>465</v>
       </c>
       <c r="C481" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D481">
         <v>10</v>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1419,10 +1419,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1509,8 +1509,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1519,7 +1534,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1537,11 +1552,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1553,8 +1591,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1569,49 +1615,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1624,15 +1631,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1640,13 +1647,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1673,7 +1673,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1685,13 +1745,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1703,19 +1757,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1727,43 +1781,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1775,7 +1793,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1787,31 +1805,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1823,7 +1817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1847,6 +1841,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1858,41 +1858,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1930,6 +1895,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1940,6 +1931,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1961,7 +1961,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1970,137 +1976,131 @@
     <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2459,8 +2459,8 @@
   <sheetPr/>
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A345" workbookViewId="0">
-      <selection activeCell="C356" sqref="C356:C358"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="3"/>
@@ -2582,7 +2582,7 @@
       <c r="A12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -4288,8 +4288,8 @@
       <c r="B140" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C140" s="10" t="s">
-        <v>27</v>
+      <c r="C140" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="D140">
         <v>2</v>
